--- a/Таблица ЧМ3.xlsx
+++ b/Таблица ЧМ3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\ВУЗ\ЧМ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Afina\source\repos\ChM\PZ3\PZ3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31187BED-7721-4497-B43F-D2F556462A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FD423D-ED1F-451B-B4DF-3E7D4B4BE085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="На наших" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="22">
   <si>
     <t>Метод</t>
   </si>
@@ -101,19 +101,24 @@
     <t>МСГ (с LU(sq) обусл)</t>
   </si>
   <si>
-    <t>Время, мк</t>
+    <t>Время, мс</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="0.00000000000000"/>
     <numFmt numFmtId="165" formatCode="0.0E+00"/>
     <numFmt numFmtId="166" formatCode="0E+00"/>
+    <numFmt numFmtId="167" formatCode="0.000000000000"/>
+    <numFmt numFmtId="168" formatCode="0.0000000000"/>
+    <numFmt numFmtId="169" formatCode="0.00000000"/>
+    <numFmt numFmtId="170" formatCode="0.0000000"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,16 +126,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -263,118 +281,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -389,43 +349,199 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -710,2594 +826,2546 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N106"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:L50"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70:F81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="21.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="4.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="4.42578125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="8.140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="36" customWidth="1"/>
+    <col min="3" max="3" width="8" style="30" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="12"/>
+    <col min="8" max="8" width="16.28515625" style="36" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="30"/>
+    <col min="10" max="10" width="5.42578125" style="12" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" style="12" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="12" customWidth="1"/>
+    <col min="13" max="16384" width="9.7109375" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="6"/>
-      <c r="N1" s="7"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="14">
         <v>0.99999999990352795</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="15">
         <f>B2-N2</f>
         <v>-9.647205256868574E-11</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="13">
         <v>4863</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="16">
         <v>9.9525590000000005E-14</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="13">
         <v>2061</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="14">
         <v>0.99999999998908295</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="15">
         <f>H2-N2</f>
         <v>-1.0917045045744089E-11</v>
       </c>
-      <c r="J2" s="21">
+      <c r="J2" s="13">
         <v>504</v>
       </c>
-      <c r="K2" s="24">
+      <c r="K2" s="16">
         <v>9.149629E-14</v>
       </c>
-      <c r="L2" s="21">
+      <c r="L2" s="13">
         <v>283</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="10">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19">
         <v>1.99999999989299</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="20">
         <f t="shared" ref="C3:C13" si="0">B3-N3</f>
         <v>-1.0700995645152034E-10</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="10">
+      <c r="D3" s="18"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="19">
         <v>1.9999999999882301</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="20">
         <f t="shared" ref="I3:I13" si="1">H3-N3</f>
         <v>-1.1769918373261135E-11</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="22"/>
-      <c r="N3" s="1">
+      <c r="J3" s="18"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="18"/>
+      <c r="N3" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="10">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19">
         <v>2.9999999998906102</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="20">
         <f t="shared" si="0"/>
         <v>-1.0938983052710682E-10</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="10">
+      <c r="D4" s="18"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="19">
         <v>2.99999999998801</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="20">
         <f t="shared" si="1"/>
         <v>-1.1989964576741841E-11</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="22"/>
-      <c r="N4" s="1">
+      <c r="J4" s="18"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="18"/>
+      <c r="N4" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="10">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19">
         <v>3.9999999998885798</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="20">
         <f t="shared" si="0"/>
         <v>-1.1142020639454131E-10</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="10">
+      <c r="D5" s="18"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="19">
         <v>3.9999999999878701</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="20">
         <f t="shared" si="1"/>
         <v>-1.212985267784461E-11</v>
       </c>
-      <c r="J5" s="22"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="22"/>
-      <c r="N5" s="1">
+      <c r="J5" s="18"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="18"/>
+      <c r="N5" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="10">
+      <c r="A6" s="18"/>
+      <c r="B6" s="19">
         <v>4.9999999998880398</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="20">
         <f t="shared" si="0"/>
         <v>-1.1196021887371899E-10</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="10">
+      <c r="D6" s="18"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="19">
         <v>4.9999999999879297</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="20">
         <f t="shared" si="1"/>
         <v>-1.2070344723724702E-11</v>
       </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="22"/>
-      <c r="N6" s="1">
+      <c r="J6" s="18"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="18"/>
+      <c r="N6" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="10">
+      <c r="A7" s="18"/>
+      <c r="B7" s="19">
         <v>5.9999999998887903</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="20">
         <f t="shared" si="0"/>
         <v>-1.1120970810907238E-10</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="10">
+      <c r="D7" s="18"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="19">
         <v>5.9999999999881197</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="20">
         <f t="shared" si="1"/>
         <v>-1.1880274541908875E-11</v>
       </c>
-      <c r="J7" s="22"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="22"/>
-      <c r="N7" s="1">
+      <c r="J7" s="18"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="18"/>
+      <c r="N7" s="12">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="10">
+      <c r="A8" s="18"/>
+      <c r="B8" s="19">
         <v>6.9999999998941398</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="20">
         <f t="shared" si="0"/>
         <v>-1.0586020948721853E-10</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="10">
+      <c r="D8" s="18"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="19">
         <v>6.99999999998857</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="20">
         <f t="shared" si="1"/>
         <v>-1.1429968083120912E-11</v>
       </c>
-      <c r="J8" s="22"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="22"/>
-      <c r="N8" s="1">
+      <c r="J8" s="18"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="18"/>
+      <c r="N8" s="12">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="10">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19">
         <v>7.9999999998954001</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="20">
         <f t="shared" si="0"/>
         <v>-1.0459988430966405E-10</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="10">
+      <c r="D9" s="18"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="19">
         <v>7.9999999999886597</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="20">
         <f t="shared" si="1"/>
         <v>-1.1340262062731199E-11</v>
       </c>
-      <c r="J9" s="22"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="22"/>
-      <c r="N9" s="1">
+      <c r="J9" s="18"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="18"/>
+      <c r="N9" s="12">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="10">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19">
         <v>8.9999999998940794</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="20">
         <f t="shared" si="0"/>
         <v>-1.0592060561975813E-10</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="10">
+      <c r="D10" s="18"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="19">
         <v>8.99999999998861</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="20">
         <f t="shared" si="1"/>
         <v>-1.1390000054234406E-11</v>
       </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="22"/>
-      <c r="N10" s="1">
+      <c r="J10" s="18"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="18"/>
+      <c r="N10" s="12">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="10">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19">
         <v>9.9999999998911502</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="20">
         <f t="shared" si="0"/>
         <v>-1.0884981804792915E-10</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="10">
+      <c r="D11" s="18"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="19">
         <v>9.9999999999884395</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="20">
         <f t="shared" si="1"/>
         <v>-1.156053031081683E-11</v>
       </c>
-      <c r="J11" s="22"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="22"/>
-      <c r="N11" s="1">
+      <c r="J11" s="18"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="18"/>
+      <c r="N11" s="12">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="10">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19">
         <v>10.9999999998889</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="20">
         <f t="shared" si="0"/>
         <v>-1.1110046216344927E-10</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="10">
+      <c r="D12" s="18"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="19">
         <v>10.9999999999882</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="20">
         <f t="shared" si="1"/>
         <v>-1.1800338484135864E-11</v>
       </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="22"/>
-      <c r="N12" s="1">
+      <c r="J12" s="18"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="18"/>
+      <c r="N12" s="12">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
-      <c r="B13" s="11">
+      <c r="B13" s="24">
         <v>11.999999999887899</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="25">
         <f t="shared" si="0"/>
         <v>-1.1210055106403161E-10</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="26"/>
       <c r="F13" s="23"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="11">
+      <c r="G13" s="27"/>
+      <c r="H13" s="24">
         <v>11.9999999999882</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="25">
         <f t="shared" si="1"/>
         <v>-1.1800338484135864E-11</v>
       </c>
       <c r="J13" s="23"/>
       <c r="K13" s="26"/>
       <c r="L13" s="23"/>
-      <c r="N13" s="1">
+      <c r="N13" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="14">
         <v>0.99999999999990297</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="15">
         <f>B14-N2</f>
         <v>-9.7033492352238682E-14</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="13">
         <v>16</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="28">
         <v>8.0000000000000006E-15</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="13">
         <v>17</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="19">
         <v>1.00000000001419</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="30">
         <f>H14-N14</f>
         <v>1.4189982522339051E-11</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="18">
         <v>15</v>
       </c>
-      <c r="K14" s="30">
+      <c r="K14" s="29">
         <v>1.7999999999999999E-14</v>
       </c>
-      <c r="L14" s="22">
+      <c r="L14" s="18">
         <v>19</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="10">
+      <c r="A15" s="18"/>
+      <c r="B15" s="19">
         <v>1.9999999999998099</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="20">
         <f t="shared" ref="C15:C49" si="2">B15-N3</f>
         <v>-1.900701818158268E-13</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="10">
+      <c r="D15" s="18"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="19">
         <v>2.0000000000159401</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="30">
         <f t="shared" ref="I15:I37" si="3">H15-N15</f>
         <v>1.5940138098358148E-11</v>
       </c>
-      <c r="J15" s="22"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="22"/>
-      <c r="N15" s="1">
+      <c r="J15" s="18"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="18"/>
+      <c r="N15" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="10">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19">
         <v>2.9999999999998299</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="20">
         <f t="shared" si="2"/>
         <v>-1.7008616737257398E-13</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="10">
+      <c r="D16" s="18"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="19">
         <v>3.0000000000162799</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="30">
         <f t="shared" si="3"/>
         <v>1.6279866343893445E-11</v>
       </c>
-      <c r="J16" s="22"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="22"/>
-      <c r="N16" s="1">
+      <c r="J16" s="18"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="18"/>
+      <c r="N16" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="10">
+      <c r="A17" s="18"/>
+      <c r="B17" s="19">
         <v>3.9999999999999201</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="20">
         <f t="shared" si="2"/>
         <v>-7.9936057773011271E-14</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="10">
+      <c r="D17" s="18"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="19">
         <v>4.0000000000165903</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="30">
         <f t="shared" si="3"/>
         <v>1.6590284701578639E-11</v>
       </c>
-      <c r="J17" s="22"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="22"/>
-      <c r="N17" s="1">
+      <c r="J17" s="18"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="18"/>
+      <c r="N17" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="10">
+      <c r="A18" s="18"/>
+      <c r="B18" s="19">
         <v>5.0000000000000302</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="20">
         <f t="shared" si="2"/>
         <v>3.0198066269804258E-14</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="10">
+      <c r="D18" s="18"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="19">
         <v>5.00000000001672</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="30">
         <f t="shared" si="3"/>
         <v>1.6719958750854857E-11</v>
       </c>
-      <c r="J18" s="22"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="22"/>
-      <c r="N18" s="1">
+      <c r="J18" s="18"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="18"/>
+      <c r="N18" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="10">
+      <c r="A19" s="18"/>
+      <c r="B19" s="19">
         <v>6.0000000000001004</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="20">
         <f t="shared" si="2"/>
         <v>1.0036416142611415E-13</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="10">
+      <c r="D19" s="18"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="19">
         <v>6.0000000000165903</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="30">
         <f t="shared" si="3"/>
         <v>1.6590284701578639E-11</v>
       </c>
-      <c r="J19" s="22"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="22"/>
-      <c r="N19" s="1">
+      <c r="J19" s="18"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="18"/>
+      <c r="N19" s="12">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="10">
+      <c r="A20" s="18"/>
+      <c r="B20" s="19">
         <v>6.9999999999999796</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="20">
         <f t="shared" si="2"/>
         <v>-2.042810365310288E-14</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="10">
+      <c r="D20" s="18"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="19">
         <v>7.00000000001556</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="30">
         <f t="shared" si="3"/>
         <v>1.5559997734726494E-11</v>
       </c>
-      <c r="J20" s="22"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="22"/>
-      <c r="N20" s="1">
+      <c r="J20" s="18"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="18"/>
+      <c r="N20" s="12">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="10">
+      <c r="A21" s="18"/>
+      <c r="B21" s="19">
         <v>7.9999999999998499</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="20">
         <f t="shared" si="2"/>
         <v>-1.5010215292932116E-13</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="10">
+      <c r="D21" s="18"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="19">
         <v>8.0000000000154898</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="30">
         <f t="shared" si="3"/>
         <v>1.5489831639570184E-11</v>
       </c>
-      <c r="J21" s="22"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="22"/>
-      <c r="N21" s="1">
+      <c r="J21" s="18"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="18"/>
+      <c r="N21" s="12">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="10">
+      <c r="A22" s="18"/>
+      <c r="B22" s="19">
         <v>8.9999999999997797</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="20">
         <f t="shared" si="2"/>
         <v>-2.2026824808563106E-13</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="10">
+      <c r="D22" s="18"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="19">
         <v>9.0000000000158291</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="30">
         <f t="shared" si="3"/>
         <v>1.5829115795895632E-11</v>
       </c>
-      <c r="J22" s="22"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="22"/>
-      <c r="N22" s="1">
+      <c r="J22" s="18"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="18"/>
+      <c r="N22" s="12">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="B23" s="10">
+      <c r="A23" s="18"/>
+      <c r="B23" s="19">
         <v>9.9999999999997904</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="20">
         <f t="shared" si="2"/>
         <v>-2.0961010704922955E-13</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="10">
+      <c r="D23" s="18"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="19">
         <v>10.0000000000162</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="30">
         <f t="shared" si="3"/>
         <v>1.6200374375330284E-11</v>
       </c>
-      <c r="J23" s="22"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="22"/>
-      <c r="N23" s="1">
+      <c r="J23" s="18"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="18"/>
+      <c r="N23" s="12">
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="B24" s="10">
+      <c r="A24" s="18"/>
+      <c r="B24" s="19">
         <v>10.999999999999901</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="20">
         <f t="shared" si="2"/>
         <v>-9.9475983006414026E-14</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="10">
+      <c r="D24" s="18"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="19">
         <v>11.000000000016501</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="30">
         <f t="shared" si="3"/>
         <v>1.6500578681188927E-11</v>
       </c>
-      <c r="J24" s="22"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="22"/>
-      <c r="N24" s="1">
+      <c r="J24" s="18"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="18"/>
+      <c r="N24" s="12">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
-      <c r="B25" s="11">
+      <c r="B25" s="24">
         <v>12</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D25" s="23"/>
-      <c r="E25" s="29"/>
+      <c r="E25" s="32"/>
       <c r="F25" s="23"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="10">
+      <c r="G25" s="38"/>
+      <c r="H25" s="19">
         <v>12.000000000016801</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="30">
         <f t="shared" si="3"/>
         <v>1.6800782987047569E-11</v>
       </c>
-      <c r="J25" s="22"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="22"/>
-      <c r="N25" s="1">
+      <c r="J25" s="18"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="18"/>
+      <c r="N25" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="19">
         <v>1.0000000000014</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="30">
         <f t="shared" si="2"/>
         <v>1.3999912340523224E-12</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="18">
         <v>12</v>
       </c>
-      <c r="E26" s="30">
+      <c r="E26" s="29">
         <v>2.0000000000000002E-15</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F26" s="18">
         <v>25</v>
       </c>
-      <c r="G26" s="31" t="s">
+      <c r="G26" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H26" s="14">
         <v>1.00000000000914</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I26" s="15">
         <f t="shared" si="3"/>
         <v>9.1400220725290637E-12</v>
       </c>
-      <c r="J26" s="21">
+      <c r="J26" s="13">
         <v>13</v>
       </c>
-      <c r="K26" s="34">
+      <c r="K26" s="33">
         <v>1.3E-14</v>
       </c>
-      <c r="L26" s="21">
+      <c r="L26" s="13">
         <v>26</v>
       </c>
-      <c r="N26" s="1">
+      <c r="N26" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
-      <c r="B27" s="10">
+      <c r="A27" s="18"/>
+      <c r="B27" s="19">
         <v>2.0000000000015601</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="30">
         <f t="shared" si="2"/>
         <v>1.56008539420327E-12</v>
       </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="10">
+      <c r="D27" s="18"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="19">
         <v>2.0000000000101301</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I27" s="20">
         <f t="shared" si="3"/>
         <v>1.0130118965889778E-11</v>
       </c>
-      <c r="J27" s="22"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="22"/>
-      <c r="N27" s="1">
+      <c r="J27" s="18"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="18"/>
+      <c r="N27" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="10">
+      <c r="A28" s="18"/>
+      <c r="B28" s="19">
         <v>3.0000000000016001</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="30">
         <f t="shared" si="2"/>
         <v>1.6000534230897756E-12</v>
       </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="10">
+      <c r="D28" s="18"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="19">
         <v>3.0000000000104201</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I28" s="20">
         <f t="shared" si="3"/>
         <v>1.0420109219921869E-11</v>
       </c>
-      <c r="J28" s="22"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="22"/>
-      <c r="N28" s="1">
+      <c r="J28" s="18"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="18"/>
+      <c r="N28" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="10">
+      <c r="A29" s="18"/>
+      <c r="B29" s="19">
         <v>4.0000000000016103</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="30">
         <f t="shared" si="2"/>
         <v>1.610267474916327E-12</v>
       </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="10">
+      <c r="D29" s="18"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="19">
         <v>4.0000000000107203</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I29" s="20">
         <f t="shared" si="3"/>
         <v>1.0720313525780512E-11</v>
       </c>
-      <c r="J29" s="22"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="22"/>
-      <c r="N29" s="1">
+      <c r="J29" s="18"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="18"/>
+      <c r="N29" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="10">
+      <c r="A30" s="18"/>
+      <c r="B30" s="19">
         <v>5.00000000000162</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="30">
         <f t="shared" si="2"/>
         <v>1.6200374375330284E-12</v>
       </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="10">
+      <c r="D30" s="18"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="19">
         <v>5.0000000000108402</v>
       </c>
-      <c r="I30" s="14">
+      <c r="I30" s="20">
         <f t="shared" si="3"/>
         <v>1.0840217612440028E-11</v>
       </c>
-      <c r="J30" s="22"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="22"/>
-      <c r="N30" s="1">
+      <c r="J30" s="18"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="18"/>
+      <c r="N30" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="B31" s="10">
+      <c r="A31" s="18"/>
+      <c r="B31" s="19">
         <v>6.0000000000015996</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="30">
         <f t="shared" si="2"/>
         <v>1.5996093338799255E-12</v>
       </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="10">
+      <c r="D31" s="18"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="19">
         <v>6.0000000000107798</v>
       </c>
-      <c r="I31" s="14">
+      <c r="I31" s="20">
         <f t="shared" si="3"/>
         <v>1.077982147990042E-11</v>
       </c>
-      <c r="J31" s="22"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="22"/>
-      <c r="N31" s="1">
+      <c r="J31" s="18"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="18"/>
+      <c r="N31" s="12">
         <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="10">
+      <c r="A32" s="18"/>
+      <c r="B32" s="19">
         <v>7.0000000000015499</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="30">
         <f t="shared" si="2"/>
         <v>1.5498713423767185E-12</v>
       </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="10">
+      <c r="D32" s="18"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="19">
         <v>7.0000000000101297</v>
       </c>
-      <c r="I32" s="14">
+      <c r="I32" s="20">
         <f t="shared" si="3"/>
         <v>1.0129674876679928E-11</v>
       </c>
-      <c r="J32" s="22"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="22"/>
-      <c r="N32" s="1">
+      <c r="J32" s="18"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="18"/>
+      <c r="N32" s="12">
         <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-      <c r="B33" s="10">
+      <c r="A33" s="18"/>
+      <c r="B33" s="19">
         <v>8.0000000000015294</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="30">
         <f t="shared" si="2"/>
         <v>1.5294432387236157E-12</v>
       </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="10">
+      <c r="D33" s="18"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="19">
         <v>8.0000000000098908</v>
       </c>
-      <c r="I33" s="14">
+      <c r="I33" s="20">
         <f t="shared" si="3"/>
         <v>9.8907548817805946E-12</v>
       </c>
-      <c r="J33" s="22"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="22"/>
-      <c r="N33" s="1">
+      <c r="J33" s="18"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="18"/>
+      <c r="N33" s="12">
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
-      <c r="B34" s="10">
+      <c r="A34" s="18"/>
+      <c r="B34" s="19">
         <v>9.0000000000015596</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="30">
         <f t="shared" si="2"/>
         <v>1.5596413049934199E-12</v>
       </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="10">
+      <c r="D34" s="18"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="19">
         <v>9.00000000001004</v>
       </c>
-      <c r="I34" s="14">
+      <c r="I34" s="20">
         <f t="shared" si="3"/>
         <v>1.0039968856290216E-11</v>
       </c>
-      <c r="J34" s="22"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="22"/>
-      <c r="N34" s="1">
+      <c r="J34" s="18"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="18"/>
+      <c r="N34" s="12">
         <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
-      <c r="B35" s="10">
+      <c r="A35" s="18"/>
+      <c r="B35" s="19">
         <v>10.000000000001499</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="30">
         <f t="shared" si="2"/>
         <v>1.4992451724538114E-12</v>
       </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="10">
+      <c r="D35" s="18"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="19">
         <v>10.000000000010299</v>
       </c>
-      <c r="I35" s="14">
+      <c r="I35" s="20">
         <f t="shared" si="3"/>
         <v>1.0299316954842652E-11</v>
       </c>
-      <c r="J35" s="22"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="22"/>
-      <c r="N35" s="1">
+      <c r="J35" s="18"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="18"/>
+      <c r="N35" s="12">
         <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
-      <c r="B36" s="10">
+      <c r="A36" s="18"/>
+      <c r="B36" s="19">
         <v>11.0000000000016</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="30">
         <f t="shared" si="2"/>
         <v>1.6004975122996257E-12</v>
       </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="10">
+      <c r="D36" s="18"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="19">
         <v>11.000000000010701</v>
       </c>
-      <c r="I36" s="14">
+      <c r="I36" s="20">
         <f t="shared" si="3"/>
         <v>1.0700773600547109E-11</v>
       </c>
-      <c r="J36" s="22"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="22"/>
-      <c r="N36" s="1">
+      <c r="J36" s="18"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="18"/>
+      <c r="N36" s="12">
         <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
-      <c r="B37" s="10">
+      <c r="A37" s="18"/>
+      <c r="B37" s="19">
         <v>12.0000000000016</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="30">
         <f t="shared" si="2"/>
         <v>1.6004975122996257E-12</v>
       </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="11">
+      <c r="D37" s="18"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="24">
         <v>12.000000000010999</v>
       </c>
-      <c r="I37" s="15">
+      <c r="I37" s="25">
         <f t="shared" si="3"/>
         <v>1.0999201549566351E-11</v>
       </c>
       <c r="J37" s="23"/>
-      <c r="K37" s="36"/>
+      <c r="K37" s="35"/>
       <c r="L37" s="23"/>
-      <c r="N37" s="1">
+      <c r="N37" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="12">
+      <c r="B38" s="14">
         <v>1.0000000000001299</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="15">
         <f t="shared" si="2"/>
         <v>1.2989609388114332E-13</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D38" s="13">
         <v>12</v>
       </c>
-      <c r="E38" s="34">
+      <c r="E38" s="38">
         <v>1.0000000000000001E-15</v>
       </c>
-      <c r="F38" s="21">
+      <c r="F38" s="13">
         <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
-      <c r="B39" s="10">
+      <c r="A39" s="18"/>
+      <c r="B39" s="19">
         <v>2.0000000000001501</v>
       </c>
-      <c r="C39" s="14">
+      <c r="C39" s="20">
         <f t="shared" si="2"/>
         <v>1.5010215292932116E-13</v>
       </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="22"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="18"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
-      <c r="B40" s="10">
+      <c r="A40" s="18"/>
+      <c r="B40" s="19">
         <v>3.0000000000001501</v>
       </c>
-      <c r="C40" s="14">
+      <c r="C40" s="20">
         <f t="shared" si="2"/>
         <v>1.5010215292932116E-13</v>
       </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="22"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="18"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="10">
+      <c r="A41" s="18"/>
+      <c r="B41" s="19">
         <v>4.0000000000001599</v>
       </c>
-      <c r="C41" s="14">
+      <c r="C41" s="20">
         <f t="shared" si="2"/>
         <v>1.5987211554602254E-13</v>
       </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="22"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="18"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
-      <c r="B42" s="10">
+      <c r="A42" s="18"/>
+      <c r="B42" s="19">
         <v>5.0000000000001599</v>
       </c>
-      <c r="C42" s="14">
+      <c r="C42" s="20">
         <f t="shared" si="2"/>
         <v>1.5987211554602254E-13</v>
       </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="22"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="18"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
-      <c r="B43" s="10">
+      <c r="A43" s="18"/>
+      <c r="B43" s="19">
         <v>6.0000000000001501</v>
       </c>
-      <c r="C43" s="14">
+      <c r="C43" s="20">
         <f t="shared" si="2"/>
         <v>1.5010215292932116E-13</v>
       </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="22"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="18"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="22"/>
-      <c r="B44" s="10">
+      <c r="A44" s="18"/>
+      <c r="B44" s="19">
         <v>7.0000000000001501</v>
       </c>
-      <c r="C44" s="14">
+      <c r="C44" s="20">
         <f t="shared" si="2"/>
         <v>1.5010215292932116E-13</v>
       </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="22"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="18"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
-      <c r="B45" s="10">
+      <c r="A45" s="18"/>
+      <c r="B45" s="19">
         <v>8.0000000000001403</v>
       </c>
-      <c r="C45" s="14">
+      <c r="C45" s="20">
         <f t="shared" si="2"/>
         <v>1.4033219031261979E-13</v>
       </c>
-      <c r="D45" s="22"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="22"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="18"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="22"/>
-      <c r="B46" s="10">
+      <c r="A46" s="18"/>
+      <c r="B46" s="19">
         <v>9.0000000000001403</v>
       </c>
-      <c r="C46" s="14">
+      <c r="C46" s="20">
         <f t="shared" si="2"/>
         <v>1.4033219031261979E-13</v>
       </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="22"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="18"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="22"/>
-      <c r="B47" s="10">
+      <c r="A47" s="18"/>
+      <c r="B47" s="19">
         <v>10.000000000000099</v>
       </c>
-      <c r="C47" s="14">
+      <c r="C47" s="20">
         <f t="shared" si="2"/>
         <v>9.9475983006414026E-14</v>
       </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="22"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="18"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="22"/>
-      <c r="B48" s="10">
+      <c r="A48" s="18"/>
+      <c r="B48" s="19">
         <v>11.000000000000099</v>
       </c>
-      <c r="C48" s="14">
+      <c r="C48" s="20">
         <f t="shared" si="2"/>
         <v>9.9475983006414026E-14</v>
       </c>
-      <c r="D48" s="22"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="22"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="18"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="23"/>
-      <c r="B49" s="11">
+      <c r="B49" s="24">
         <v>12.000000000000099</v>
       </c>
-      <c r="C49" s="15">
+      <c r="C49" s="25">
         <f t="shared" si="2"/>
         <v>9.9475983006414026E-14</v>
       </c>
       <c r="D49" s="23"/>
-      <c r="E49" s="36"/>
+      <c r="E49" s="38"/>
       <c r="F49" s="23"/>
     </row>
-    <row r="50" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
+    <row r="50" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="F50" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E57" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="F57" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G57" s="6" t="s">
+      <c r="G57" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H57" s="9" t="s">
+      <c r="H57" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I57" s="5" t="s">
+      <c r="I57" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="J57" s="8" t="s">
+      <c r="J57" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="6" t="s">
+      <c r="K57" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="L57" s="8" t="s">
+      <c r="L57" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B58" s="12">
+      <c r="B58" s="14">
         <v>1.00000000000059</v>
       </c>
-      <c r="C58" s="13">
+      <c r="C58" s="15">
         <f>B58-N58</f>
         <v>5.8997251528580819E-13</v>
       </c>
-      <c r="D58" s="21">
+      <c r="D58" s="13">
         <v>56</v>
       </c>
-      <c r="E58" s="24">
+      <c r="E58" s="16">
         <v>8.4618879999999997E-14</v>
       </c>
-      <c r="F58" s="21">
+      <c r="F58" s="13">
         <v>32</v>
       </c>
-      <c r="G58" s="31" t="s">
+      <c r="G58" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H58" s="12">
+      <c r="H58" s="14">
         <v>1.0000000000003699</v>
       </c>
-      <c r="I58" s="13">
+      <c r="I58" s="15">
         <f>H58-N58</f>
         <v>3.6992631180510216E-13</v>
       </c>
-      <c r="J58" s="21">
+      <c r="J58" s="13">
         <v>21</v>
       </c>
-      <c r="K58" s="24">
+      <c r="K58" s="16">
         <v>7.5880089999999997E-14</v>
       </c>
-      <c r="L58" s="21">
+      <c r="L58" s="13">
         <v>21</v>
       </c>
-      <c r="N58" s="4">
+      <c r="N58" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="22"/>
-      <c r="B59" s="10">
+      <c r="A59" s="18"/>
+      <c r="B59" s="19">
         <v>1.99999999999914</v>
       </c>
-      <c r="C59" s="14">
+      <c r="C59" s="20">
         <f>-B59-N59</f>
         <v>-3.9999999999991402</v>
       </c>
-      <c r="D59" s="22"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="10">
+      <c r="D59" s="18"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="19">
         <v>2.0000000000004099</v>
       </c>
-      <c r="I59" s="14">
+      <c r="I59" s="20">
         <f>H59-N59</f>
         <v>4.0989434069160779E-13</v>
       </c>
-      <c r="J59" s="22"/>
-      <c r="K59" s="25"/>
-      <c r="L59" s="22"/>
-      <c r="N59" s="4">
+      <c r="J59" s="18"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="18"/>
+      <c r="N59" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="22"/>
-      <c r="B60" s="10">
+      <c r="A60" s="18"/>
+      <c r="B60" s="19">
         <v>3.0000000000000502</v>
       </c>
-      <c r="C60" s="14">
+      <c r="C60" s="20">
         <f t="shared" ref="C60:C69" si="4">-B60-N60</f>
         <v>-6.0000000000000497</v>
       </c>
-      <c r="D60" s="22"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="10">
+      <c r="D60" s="18"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="19">
         <v>2.9999999999996101</v>
       </c>
-      <c r="I60" s="14">
+      <c r="I60" s="20">
         <f t="shared" ref="I60:I69" si="5">H60-N60</f>
         <v>-3.8991032624835498E-13</v>
       </c>
-      <c r="J60" s="22"/>
-      <c r="K60" s="25"/>
-      <c r="L60" s="22"/>
-      <c r="N60" s="4">
+      <c r="J60" s="18"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="18"/>
+      <c r="N60" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="22"/>
-      <c r="B61" s="10">
+      <c r="A61" s="18"/>
+      <c r="B61" s="19">
         <v>3.9999999999997198</v>
       </c>
-      <c r="C61" s="14">
+      <c r="C61" s="20">
         <f t="shared" si="4"/>
         <v>-7.9999999999997193</v>
       </c>
-      <c r="D61" s="22"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="10">
+      <c r="D61" s="18"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="19">
         <v>3.9999999999994098</v>
       </c>
-      <c r="I61" s="14">
+      <c r="I61" s="20">
         <f t="shared" si="5"/>
         <v>-5.9019455989073322E-13</v>
       </c>
-      <c r="J61" s="22"/>
-      <c r="K61" s="25"/>
-      <c r="L61" s="22"/>
-      <c r="N61" s="4">
+      <c r="J61" s="18"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="18"/>
+      <c r="N61" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="22"/>
-      <c r="B62" s="10">
+      <c r="A62" s="18"/>
+      <c r="B62" s="19">
         <v>4.9999999999997096</v>
       </c>
-      <c r="C62" s="14">
+      <c r="C62" s="20">
         <f t="shared" si="4"/>
         <v>-9.9999999999997087</v>
       </c>
-      <c r="D62" s="22"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="10">
+      <c r="D62" s="18"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="19">
         <v>4.99999999999977</v>
       </c>
-      <c r="I62" s="14">
+      <c r="I62" s="20">
         <f t="shared" si="5"/>
         <v>-2.3003821070233244E-13</v>
       </c>
-      <c r="J62" s="22"/>
-      <c r="K62" s="25"/>
-      <c r="L62" s="22"/>
-      <c r="N62" s="4">
+      <c r="J62" s="18"/>
+      <c r="K62" s="21"/>
+      <c r="L62" s="18"/>
+      <c r="N62" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="22"/>
-      <c r="B63" s="10">
+      <c r="A63" s="18"/>
+      <c r="B63" s="19">
         <v>6.0000000000003197</v>
       </c>
-      <c r="C63" s="14">
+      <c r="C63" s="20">
         <f t="shared" si="4"/>
         <v>-12.00000000000032</v>
       </c>
-      <c r="D63" s="22"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="10">
+      <c r="D63" s="18"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="19">
         <v>6.0000000000003002</v>
       </c>
-      <c r="I63" s="14">
+      <c r="I63" s="20">
         <f t="shared" si="5"/>
         <v>3.0020430585864233E-13</v>
       </c>
-      <c r="J63" s="22"/>
-      <c r="K63" s="25"/>
-      <c r="L63" s="22"/>
-      <c r="N63" s="4">
+      <c r="J63" s="18"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="18"/>
+      <c r="N63" s="12">
         <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="22"/>
-      <c r="B64" s="10">
+      <c r="A64" s="18"/>
+      <c r="B64" s="19">
         <v>6.99999999999838</v>
       </c>
-      <c r="C64" s="14">
+      <c r="C64" s="20">
         <f t="shared" si="4"/>
         <v>-13.99999999999838</v>
       </c>
-      <c r="D64" s="22"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="10">
+      <c r="D64" s="18"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="19">
         <v>7.0000000000003499</v>
       </c>
-      <c r="I64" s="14">
+      <c r="I64" s="20">
         <f t="shared" si="5"/>
         <v>3.4994229736184934E-13</v>
       </c>
-      <c r="J64" s="22"/>
-      <c r="K64" s="25"/>
-      <c r="L64" s="22"/>
-      <c r="N64" s="4">
+      <c r="J64" s="18"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="18"/>
+      <c r="N64" s="12">
         <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="22"/>
-      <c r="B65" s="10">
+      <c r="A65" s="18"/>
+      <c r="B65" s="19">
         <v>8.0000000000003695</v>
       </c>
-      <c r="C65" s="14">
+      <c r="C65" s="20">
         <f t="shared" si="4"/>
         <v>-16.000000000000369</v>
       </c>
-      <c r="D65" s="22"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="10">
+      <c r="D65" s="18"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="19">
         <v>7.9999999999998197</v>
       </c>
-      <c r="I65" s="14">
+      <c r="I65" s="20">
         <f t="shared" si="5"/>
         <v>-1.8030021919912542E-13</v>
       </c>
-      <c r="J65" s="22"/>
-      <c r="K65" s="25"/>
-      <c r="L65" s="22"/>
-      <c r="N65" s="4">
+      <c r="J65" s="18"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="18"/>
+      <c r="N65" s="12">
         <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="22"/>
-      <c r="B66" s="10">
+      <c r="A66" s="18"/>
+      <c r="B66" s="19">
         <v>8.9999999999994902</v>
       </c>
-      <c r="C66" s="14">
+      <c r="C66" s="20">
         <f t="shared" si="4"/>
         <v>-17.999999999999488</v>
       </c>
-      <c r="D66" s="22"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="32"/>
-      <c r="H66" s="10">
+      <c r="D66" s="18"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="19">
         <v>8.9999999999997193</v>
       </c>
-      <c r="I66" s="14">
+      <c r="I66" s="20">
         <f t="shared" si="5"/>
         <v>-2.8066438062523957E-13</v>
       </c>
-      <c r="J66" s="22"/>
-      <c r="K66" s="25"/>
-      <c r="L66" s="22"/>
-      <c r="N66" s="4">
+      <c r="J66" s="18"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="18"/>
+      <c r="N66" s="12">
         <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="22"/>
-      <c r="B67" s="10">
+      <c r="A67" s="18"/>
+      <c r="B67" s="19">
         <v>9.9999999999998099</v>
       </c>
-      <c r="C67" s="14">
+      <c r="C67" s="20">
         <f t="shared" si="4"/>
         <v>-19.999999999999808</v>
       </c>
-      <c r="D67" s="22"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="32"/>
-      <c r="H67" s="10">
+      <c r="D67" s="18"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="19">
         <v>10.000000000000099</v>
       </c>
-      <c r="I67" s="14">
+      <c r="I67" s="20">
         <f t="shared" si="5"/>
         <v>9.9475983006414026E-14</v>
       </c>
-      <c r="J67" s="22"/>
-      <c r="K67" s="25"/>
-      <c r="L67" s="22"/>
-      <c r="N67" s="4">
+      <c r="J67" s="18"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="18"/>
+      <c r="N67" s="12">
         <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="22"/>
-      <c r="B68" s="10">
+      <c r="A68" s="18"/>
+      <c r="B68" s="19">
         <v>10.999999999999501</v>
       </c>
-      <c r="C68" s="14">
+      <c r="C68" s="20">
         <f t="shared" si="4"/>
         <v>-21.999999999999503</v>
       </c>
-      <c r="D68" s="22"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="32"/>
-      <c r="H68" s="10">
+      <c r="D68" s="18"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="19">
         <v>11.0000000000003</v>
       </c>
-      <c r="I68" s="14">
+      <c r="I68" s="20">
         <f t="shared" si="5"/>
         <v>3.0020430585864233E-13</v>
       </c>
-      <c r="J68" s="22"/>
-      <c r="K68" s="25"/>
-      <c r="L68" s="22"/>
-      <c r="N68" s="4">
+      <c r="J68" s="18"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="18"/>
+      <c r="N68" s="12">
         <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="23"/>
-      <c r="B69" s="11">
+      <c r="B69" s="24">
         <v>11.999999999999501</v>
       </c>
-      <c r="C69" s="14">
+      <c r="C69" s="20">
         <f t="shared" si="4"/>
         <v>-23.999999999999503</v>
       </c>
       <c r="D69" s="23"/>
       <c r="E69" s="26"/>
       <c r="F69" s="23"/>
-      <c r="G69" s="33"/>
-      <c r="H69" s="11">
+      <c r="G69" s="27"/>
+      <c r="H69" s="24">
         <v>12.000000000000099</v>
       </c>
-      <c r="I69" s="16">
+      <c r="I69" s="37">
         <f t="shared" si="5"/>
         <v>9.9475983006414026E-14</v>
       </c>
       <c r="J69" s="23"/>
       <c r="K69" s="26"/>
       <c r="L69" s="23"/>
-      <c r="N69" s="4">
+      <c r="N69" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="21" t="s">
+      <c r="A70" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B70" s="12">
+      <c r="B70" s="14">
         <v>0.999999999999995</v>
       </c>
-      <c r="C70" s="13">
+      <c r="C70" s="15">
         <f>B70-N70</f>
         <v>-4.9960036108132044E-15</v>
       </c>
-      <c r="D70" s="21">
+      <c r="D70" s="13">
         <v>15</v>
       </c>
-      <c r="E70" s="27">
+      <c r="E70" s="39">
         <v>0</v>
       </c>
-      <c r="F70" s="21">
+      <c r="F70" s="13">
         <v>17</v>
       </c>
-      <c r="G70" s="30" t="s">
+      <c r="G70" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H70" s="10">
+      <c r="H70" s="19">
         <v>0.999999999999996</v>
       </c>
-      <c r="I70" s="3">
+      <c r="I70" s="30">
         <f>H70-N70</f>
         <v>-3.9968028886505635E-15</v>
       </c>
-      <c r="J70" s="22">
+      <c r="J70" s="18">
         <v>15</v>
       </c>
-      <c r="K70" s="27">
+      <c r="K70" s="28">
         <v>0</v>
       </c>
-      <c r="L70" s="22">
+      <c r="L70" s="18">
         <v>18</v>
       </c>
-      <c r="N70" s="4">
+      <c r="N70" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="22"/>
-      <c r="B71" s="10">
+      <c r="A71" s="18"/>
+      <c r="B71" s="19">
         <v>2</v>
       </c>
-      <c r="C71" s="14">
+      <c r="C71" s="20">
         <f>B71-N71</f>
         <v>0</v>
       </c>
-      <c r="D71" s="22"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="30"/>
-      <c r="H71" s="10">
+      <c r="D71" s="18"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="19">
         <v>2</v>
       </c>
-      <c r="I71" s="3">
+      <c r="I71" s="30">
         <f t="shared" ref="I71:I81" si="6">H71-N71</f>
         <v>0</v>
       </c>
-      <c r="J71" s="22"/>
-      <c r="K71" s="28"/>
-      <c r="L71" s="22"/>
-      <c r="N71" s="4">
+      <c r="J71" s="18"/>
+      <c r="K71" s="31"/>
+      <c r="L71" s="18"/>
+      <c r="N71" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="22"/>
-      <c r="B72" s="10">
+      <c r="A72" s="18"/>
+      <c r="B72" s="19">
         <v>2.9999999999999898</v>
       </c>
-      <c r="C72" s="14">
+      <c r="C72" s="20">
         <f t="shared" ref="C72:C81" si="7">B72-N72</f>
         <v>-1.021405182655144E-14</v>
       </c>
-      <c r="D72" s="22"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="30"/>
-      <c r="H72" s="10">
+      <c r="D72" s="18"/>
+      <c r="E72" s="39"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="29"/>
+      <c r="H72" s="19">
         <v>2.9999999999999898</v>
       </c>
-      <c r="I72" s="3">
+      <c r="I72" s="30">
         <f t="shared" si="6"/>
         <v>-1.021405182655144E-14</v>
       </c>
-      <c r="J72" s="22"/>
-      <c r="K72" s="28"/>
-      <c r="L72" s="22"/>
-      <c r="N72" s="4">
+      <c r="J72" s="18"/>
+      <c r="K72" s="31"/>
+      <c r="L72" s="18"/>
+      <c r="N72" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="22"/>
-      <c r="B73" s="10">
+      <c r="A73" s="18"/>
+      <c r="B73" s="19">
         <v>4</v>
       </c>
-      <c r="C73" s="14">
+      <c r="C73" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D73" s="22"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="30"/>
-      <c r="H73" s="10">
+      <c r="D73" s="18"/>
+      <c r="E73" s="39"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="19">
         <v>3.9999999999999898</v>
       </c>
-      <c r="I73" s="3">
+      <c r="I73" s="30">
         <f t="shared" si="6"/>
         <v>-1.021405182655144E-14</v>
       </c>
-      <c r="J73" s="22"/>
-      <c r="K73" s="28"/>
-      <c r="L73" s="22"/>
-      <c r="N73" s="4">
+      <c r="J73" s="18"/>
+      <c r="K73" s="31"/>
+      <c r="L73" s="18"/>
+      <c r="N73" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="22"/>
-      <c r="B74" s="10">
+      <c r="A74" s="18"/>
+      <c r="B74" s="19">
         <v>5</v>
       </c>
-      <c r="C74" s="14">
+      <c r="C74" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D74" s="22"/>
-      <c r="E74" s="28"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="30"/>
-      <c r="H74" s="10">
+      <c r="D74" s="18"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="19">
         <v>4.9999999999999902</v>
       </c>
-      <c r="I74" s="3">
+      <c r="I74" s="30">
         <f t="shared" si="6"/>
         <v>-9.7699626167013776E-15</v>
       </c>
-      <c r="J74" s="22"/>
-      <c r="K74" s="28"/>
-      <c r="L74" s="22"/>
-      <c r="N74" s="4">
+      <c r="J74" s="18"/>
+      <c r="K74" s="31"/>
+      <c r="L74" s="18"/>
+      <c r="N74" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="22"/>
-      <c r="B75" s="10">
+      <c r="A75" s="18"/>
+      <c r="B75" s="19">
         <v>5.9999999999999902</v>
       </c>
-      <c r="C75" s="14">
+      <c r="C75" s="20">
         <f t="shared" si="7"/>
         <v>-9.7699626167013776E-15</v>
       </c>
-      <c r="D75" s="22"/>
-      <c r="E75" s="28"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="30"/>
-      <c r="H75" s="10">
+      <c r="D75" s="18"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="29"/>
+      <c r="H75" s="19">
         <v>5.9999999999999902</v>
       </c>
-      <c r="I75" s="3">
+      <c r="I75" s="30">
         <f t="shared" si="6"/>
         <v>-9.7699626167013776E-15</v>
       </c>
-      <c r="J75" s="22"/>
-      <c r="K75" s="28"/>
-      <c r="L75" s="22"/>
-      <c r="N75" s="4">
+      <c r="J75" s="18"/>
+      <c r="K75" s="31"/>
+      <c r="L75" s="18"/>
+      <c r="N75" s="12">
         <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="22"/>
-      <c r="B76" s="10">
+      <c r="A76" s="18"/>
+      <c r="B76" s="19">
         <v>7.0000000000000098</v>
       </c>
-      <c r="C76" s="14">
+      <c r="C76" s="20">
         <f t="shared" si="7"/>
         <v>9.7699626167013776E-15</v>
       </c>
-      <c r="D76" s="22"/>
-      <c r="E76" s="28"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="30"/>
-      <c r="H76" s="10">
+      <c r="D76" s="18"/>
+      <c r="E76" s="39"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="19">
         <v>7.0000000000000098</v>
       </c>
-      <c r="I76" s="3">
+      <c r="I76" s="30">
         <f t="shared" si="6"/>
         <v>9.7699626167013776E-15</v>
       </c>
-      <c r="J76" s="22"/>
-      <c r="K76" s="28"/>
-      <c r="L76" s="22"/>
-      <c r="N76" s="4">
+      <c r="J76" s="18"/>
+      <c r="K76" s="31"/>
+      <c r="L76" s="18"/>
+      <c r="N76" s="12">
         <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="22"/>
-      <c r="B77" s="10">
+      <c r="A77" s="18"/>
+      <c r="B77" s="19">
         <v>7.9999999999999902</v>
       </c>
-      <c r="C77" s="14">
+      <c r="C77" s="20">
         <f t="shared" si="7"/>
         <v>-9.7699626167013776E-15</v>
       </c>
-      <c r="D77" s="22"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="30"/>
-      <c r="H77" s="10">
+      <c r="D77" s="18"/>
+      <c r="E77" s="39"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="19">
         <v>7.9999999999999902</v>
       </c>
-      <c r="I77" s="3">
+      <c r="I77" s="30">
         <f t="shared" si="6"/>
         <v>-9.7699626167013776E-15</v>
       </c>
-      <c r="J77" s="22"/>
-      <c r="K77" s="28"/>
-      <c r="L77" s="22"/>
-      <c r="N77" s="4">
+      <c r="J77" s="18"/>
+      <c r="K77" s="31"/>
+      <c r="L77" s="18"/>
+      <c r="N77" s="12">
         <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="22"/>
-      <c r="B78" s="10">
+      <c r="A78" s="18"/>
+      <c r="B78" s="19">
         <v>9</v>
       </c>
-      <c r="C78" s="14">
+      <c r="C78" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D78" s="22"/>
-      <c r="E78" s="28"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="30"/>
-      <c r="H78" s="10">
+      <c r="D78" s="18"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="19">
         <v>9</v>
       </c>
-      <c r="I78" s="3">
+      <c r="I78" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J78" s="22"/>
-      <c r="K78" s="28"/>
-      <c r="L78" s="22"/>
-      <c r="N78" s="4">
+      <c r="J78" s="18"/>
+      <c r="K78" s="31"/>
+      <c r="L78" s="18"/>
+      <c r="N78" s="12">
         <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="22"/>
-      <c r="B79" s="10">
+      <c r="A79" s="18"/>
+      <c r="B79" s="19">
         <v>9.9999999999999893</v>
       </c>
-      <c r="C79" s="14">
+      <c r="C79" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D79" s="22"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="30"/>
-      <c r="H79" s="10">
+      <c r="D79" s="18"/>
+      <c r="E79" s="39"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="19">
         <v>10</v>
       </c>
-      <c r="I79" s="3">
+      <c r="I79" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J79" s="22"/>
-      <c r="K79" s="28"/>
-      <c r="L79" s="22"/>
-      <c r="N79" s="4">
+      <c r="J79" s="18"/>
+      <c r="K79" s="31"/>
+      <c r="L79" s="18"/>
+      <c r="N79" s="12">
         <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="22"/>
-      <c r="B80" s="10">
+      <c r="A80" s="18"/>
+      <c r="B80" s="19">
         <v>11</v>
       </c>
-      <c r="C80" s="14">
+      <c r="C80" s="20">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D80" s="22"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="30"/>
-      <c r="H80" s="10">
+      <c r="D80" s="18"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="29"/>
+      <c r="H80" s="19">
         <v>11</v>
       </c>
-      <c r="I80" s="3">
+      <c r="I80" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J80" s="22"/>
-      <c r="K80" s="28"/>
-      <c r="L80" s="22"/>
-      <c r="N80" s="4">
+      <c r="J80" s="18"/>
+      <c r="K80" s="31"/>
+      <c r="L80" s="18"/>
+      <c r="N80" s="12">
         <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="23"/>
-      <c r="B81" s="11">
+      <c r="B81" s="24">
         <v>11.999999999999901</v>
       </c>
-      <c r="C81" s="16">
+      <c r="C81" s="37">
         <f t="shared" si="7"/>
         <v>-9.9475983006414026E-14</v>
       </c>
       <c r="D81" s="23"/>
-      <c r="E81" s="29"/>
+      <c r="E81" s="39"/>
       <c r="F81" s="23"/>
-      <c r="G81" s="30"/>
-      <c r="H81" s="10">
+      <c r="G81" s="29"/>
+      <c r="H81" s="19">
         <v>12</v>
       </c>
-      <c r="I81" s="3">
+      <c r="I81" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J81" s="22"/>
-      <c r="K81" s="29"/>
-      <c r="L81" s="22"/>
-      <c r="N81" s="4">
+      <c r="J81" s="18"/>
+      <c r="K81" s="32"/>
+      <c r="L81" s="18"/>
+      <c r="N81" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="22" t="s">
+      <c r="A82" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B82" s="10">
+      <c r="B82" s="19">
         <v>0.99999999999940403</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C82" s="30">
         <f>B82-N82</f>
         <v>-5.9596771961878403E-13</v>
       </c>
-      <c r="D82" s="22">
+      <c r="D82" s="18">
         <v>10</v>
       </c>
-      <c r="E82" s="30">
+      <c r="E82" s="29">
         <v>9.2999999999999995E-14</v>
       </c>
-      <c r="F82" s="22">
+      <c r="F82" s="18">
         <v>23</v>
       </c>
-      <c r="G82" s="31" t="s">
+      <c r="G82" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H82" s="12">
+      <c r="H82" s="14">
         <v>1.00000000000002</v>
       </c>
-      <c r="I82" s="13">
+      <c r="I82" s="15">
         <f>H82-N82</f>
         <v>1.9984014443252818E-14</v>
       </c>
-      <c r="J82" s="21">
+      <c r="J82" s="13">
         <v>11</v>
       </c>
-      <c r="K82" s="34">
+      <c r="K82" s="33">
         <v>1.0000000000000001E-15</v>
       </c>
-      <c r="L82" s="21">
+      <c r="L82" s="13">
         <v>24</v>
       </c>
-      <c r="N82" s="4">
+      <c r="N82" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" s="22"/>
-      <c r="B83" s="10">
+      <c r="A83" s="18"/>
+      <c r="B83" s="19">
         <v>2.0000000000018798</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83" s="30">
         <f>B83-N83</f>
         <v>1.8798296252953151E-12</v>
       </c>
-      <c r="D83" s="22"/>
-      <c r="E83" s="30"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="32"/>
-      <c r="H83" s="10">
+      <c r="D83" s="18"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="19">
         <v>2</v>
       </c>
-      <c r="I83" s="14">
+      <c r="I83" s="20">
         <f>H83-N83</f>
         <v>0</v>
       </c>
-      <c r="J83" s="22"/>
-      <c r="K83" s="35"/>
-      <c r="L83" s="22"/>
-      <c r="N83" s="4">
+      <c r="J83" s="18"/>
+      <c r="K83" s="34"/>
+      <c r="L83" s="18"/>
+      <c r="N83" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="22"/>
-      <c r="B84" s="10">
+      <c r="A84" s="18"/>
+      <c r="B84" s="19">
         <v>3.0000000000002598</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C84" s="30">
         <f t="shared" ref="C84:C93" si="8">B84-N84</f>
         <v>2.5979218776228663E-13</v>
       </c>
-      <c r="D84" s="22"/>
-      <c r="E84" s="30"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="32"/>
-      <c r="H84" s="10">
+      <c r="D84" s="18"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="19">
         <v>2.9999999999999898</v>
       </c>
-      <c r="I84" s="14">
+      <c r="I84" s="20">
         <f t="shared" ref="I84:I93" si="9">H84-N84</f>
         <v>-1.021405182655144E-14</v>
       </c>
-      <c r="J84" s="22"/>
-      <c r="K84" s="35"/>
-      <c r="L84" s="22"/>
-      <c r="N84" s="4">
+      <c r="J84" s="18"/>
+      <c r="K84" s="34"/>
+      <c r="L84" s="18"/>
+      <c r="N84" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="22"/>
-      <c r="B85" s="10">
+      <c r="A85" s="18"/>
+      <c r="B85" s="19">
         <v>3.9999999999967</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C85" s="30">
         <f t="shared" si="8"/>
         <v>-3.3000269183958153E-12</v>
       </c>
-      <c r="D85" s="22"/>
-      <c r="E85" s="30"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="32"/>
-      <c r="H85" s="10">
+      <c r="D85" s="18"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="19">
         <v>3.9999999999999498</v>
       </c>
-      <c r="I85" s="14">
+      <c r="I85" s="20">
         <f t="shared" si="9"/>
         <v>-5.0182080713057076E-14</v>
       </c>
-      <c r="J85" s="22"/>
-      <c r="K85" s="35"/>
-      <c r="L85" s="22"/>
-      <c r="N85" s="4">
+      <c r="J85" s="18"/>
+      <c r="K85" s="34"/>
+      <c r="L85" s="18"/>
+      <c r="N85" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" s="22"/>
-      <c r="B86" s="10">
+      <c r="A86" s="18"/>
+      <c r="B86" s="19">
         <v>5.0000000000005196</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C86" s="30">
         <f t="shared" si="8"/>
         <v>5.1958437552457326E-13</v>
       </c>
-      <c r="D86" s="22"/>
-      <c r="E86" s="30"/>
-      <c r="F86" s="22"/>
-      <c r="G86" s="32"/>
-      <c r="H86" s="10">
+      <c r="D86" s="18"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="19">
         <v>4.9999999999999902</v>
       </c>
-      <c r="I86" s="14">
+      <c r="I86" s="20">
         <f t="shared" si="9"/>
         <v>-9.7699626167013776E-15</v>
       </c>
-      <c r="J86" s="22"/>
-      <c r="K86" s="35"/>
-      <c r="L86" s="22"/>
-      <c r="N86" s="4">
+      <c r="J86" s="18"/>
+      <c r="K86" s="34"/>
+      <c r="L86" s="18"/>
+      <c r="N86" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" s="22"/>
-      <c r="B87" s="10">
+      <c r="A87" s="18"/>
+      <c r="B87" s="19">
         <v>6.0000000000017302</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87" s="30">
         <f t="shared" si="8"/>
         <v>1.730171561575844E-12</v>
       </c>
-      <c r="D87" s="22"/>
-      <c r="E87" s="30"/>
-      <c r="F87" s="22"/>
-      <c r="G87" s="32"/>
-      <c r="H87" s="10">
+      <c r="D87" s="18"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="19">
         <v>6.0000000000000204</v>
       </c>
-      <c r="I87" s="14">
+      <c r="I87" s="20">
         <f t="shared" si="9"/>
         <v>2.042810365310288E-14</v>
       </c>
-      <c r="J87" s="22"/>
-      <c r="K87" s="35"/>
-      <c r="L87" s="22"/>
-      <c r="N87" s="4">
+      <c r="J87" s="18"/>
+      <c r="K87" s="34"/>
+      <c r="L87" s="18"/>
+      <c r="N87" s="12">
         <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="22"/>
-      <c r="B88" s="10">
+      <c r="A88" s="18"/>
+      <c r="B88" s="19">
         <v>7.00000000000031</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C88" s="30">
         <f t="shared" si="8"/>
         <v>3.0997426847534371E-13</v>
       </c>
-      <c r="D88" s="22"/>
-      <c r="E88" s="30"/>
-      <c r="F88" s="22"/>
-      <c r="G88" s="32"/>
-      <c r="H88" s="10">
+      <c r="D88" s="18"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="19">
         <v>7</v>
       </c>
-      <c r="I88" s="14">
+      <c r="I88" s="20">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J88" s="22"/>
-      <c r="K88" s="35"/>
-      <c r="L88" s="22"/>
-      <c r="N88" s="4">
+      <c r="J88" s="18"/>
+      <c r="K88" s="34"/>
+      <c r="L88" s="18"/>
+      <c r="N88" s="12">
         <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="22"/>
-      <c r="B89" s="10">
+      <c r="A89" s="18"/>
+      <c r="B89" s="19">
         <v>8.0000000000000302</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89" s="30">
         <f t="shared" si="8"/>
         <v>3.0198066269804258E-14</v>
       </c>
-      <c r="D89" s="22"/>
-      <c r="E89" s="30"/>
-      <c r="F89" s="22"/>
-      <c r="G89" s="32"/>
-      <c r="H89" s="10">
+      <c r="D89" s="18"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="19">
         <v>8</v>
       </c>
-      <c r="I89" s="14">
+      <c r="I89" s="20">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J89" s="22"/>
-      <c r="K89" s="35"/>
-      <c r="L89" s="22"/>
-      <c r="N89" s="4">
+      <c r="J89" s="18"/>
+      <c r="K89" s="34"/>
+      <c r="L89" s="18"/>
+      <c r="N89" s="12">
         <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" s="22"/>
-      <c r="B90" s="10">
+      <c r="A90" s="18"/>
+      <c r="B90" s="19">
         <v>8.9999999999986997</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90" s="30">
         <f t="shared" si="8"/>
         <v>-1.3002932064409833E-12</v>
       </c>
-      <c r="D90" s="22"/>
-      <c r="E90" s="30"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="32"/>
-      <c r="H90" s="10">
+      <c r="D90" s="18"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="19">
         <v>8.9999999999999805</v>
       </c>
-      <c r="I90" s="14">
+      <c r="I90" s="20">
         <f t="shared" si="9"/>
         <v>-1.9539925233402755E-14</v>
       </c>
-      <c r="J90" s="22"/>
-      <c r="K90" s="35"/>
-      <c r="L90" s="22"/>
-      <c r="N90" s="4">
+      <c r="J90" s="18"/>
+      <c r="K90" s="34"/>
+      <c r="L90" s="18"/>
+      <c r="N90" s="12">
         <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="22"/>
-      <c r="B91" s="10">
+      <c r="A91" s="18"/>
+      <c r="B91" s="19">
         <v>9.9999999999998206</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91" s="30">
         <f t="shared" si="8"/>
         <v>-1.794120407794253E-13</v>
       </c>
-      <c r="D91" s="22"/>
-      <c r="E91" s="30"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="32"/>
-      <c r="H91" s="10">
+      <c r="D91" s="18"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="19">
         <v>10</v>
       </c>
-      <c r="I91" s="14">
+      <c r="I91" s="20">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J91" s="22"/>
-      <c r="K91" s="35"/>
-      <c r="L91" s="22"/>
-      <c r="N91" s="4">
+      <c r="J91" s="18"/>
+      <c r="K91" s="34"/>
+      <c r="L91" s="18"/>
+      <c r="N91" s="12">
         <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="22"/>
-      <c r="B92" s="10">
+      <c r="A92" s="18"/>
+      <c r="B92" s="19">
         <v>11.0000000000007</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92" s="30">
         <f t="shared" si="8"/>
         <v>6.9988459472369868E-13</v>
       </c>
-      <c r="D92" s="22"/>
-      <c r="E92" s="30"/>
-      <c r="F92" s="22"/>
-      <c r="G92" s="32"/>
-      <c r="H92" s="10">
+      <c r="D92" s="18"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="19">
         <v>11</v>
       </c>
-      <c r="I92" s="14">
+      <c r="I92" s="20">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="J92" s="22"/>
-      <c r="K92" s="35"/>
-      <c r="L92" s="22"/>
-      <c r="N92" s="4">
+      <c r="J92" s="18"/>
+      <c r="K92" s="34"/>
+      <c r="L92" s="18"/>
+      <c r="N92" s="12">
         <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="22"/>
-      <c r="B93" s="10">
+      <c r="A93" s="18"/>
+      <c r="B93" s="19">
         <v>11.999999999999901</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93" s="30">
         <f t="shared" si="8"/>
         <v>-9.9475983006414026E-14</v>
       </c>
-      <c r="D93" s="22"/>
-      <c r="E93" s="30"/>
-      <c r="F93" s="22"/>
-      <c r="G93" s="33"/>
-      <c r="H93" s="11">
+      <c r="D93" s="18"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="27"/>
+      <c r="H93" s="24">
         <v>12</v>
       </c>
-      <c r="I93" s="16">
+      <c r="I93" s="37">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J93" s="23"/>
-      <c r="K93" s="36"/>
+      <c r="K93" s="35"/>
       <c r="L93" s="23"/>
-      <c r="N93" s="4">
+      <c r="N93" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="21" t="s">
+      <c r="A94" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B94" s="12">
+      <c r="B94" s="14">
         <v>0.99999999999821898</v>
       </c>
-      <c r="C94" s="13">
+      <c r="C94" s="15">
         <f>B94-N94</f>
         <v>-1.7810197761036761E-12</v>
       </c>
-      <c r="D94" s="21">
+      <c r="D94" s="13">
         <v>10</v>
       </c>
-      <c r="E94" s="34">
+      <c r="E94" s="38">
         <v>8.2000000000000004E-14</v>
       </c>
-      <c r="F94" s="21">
+      <c r="F94" s="13">
         <v>25</v>
       </c>
-      <c r="G94" s="4"/>
-      <c r="J94" s="4"/>
-      <c r="K94" s="4"/>
-      <c r="L94" s="4"/>
-      <c r="N94" s="4">
+      <c r="N94" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="22"/>
-      <c r="B95" s="10">
+      <c r="A95" s="18"/>
+      <c r="B95" s="19">
         <v>2.0000000000023102</v>
       </c>
-      <c r="C95" s="14">
+      <c r="C95" s="20">
         <f>B95-N95</f>
         <v>2.3101520696400257E-12</v>
       </c>
-      <c r="D95" s="22"/>
-      <c r="E95" s="35"/>
-      <c r="F95" s="22"/>
-      <c r="G95" s="4"/>
-      <c r="J95" s="4"/>
-      <c r="K95" s="4"/>
-      <c r="L95" s="4"/>
-      <c r="N95" s="4">
+      <c r="D95" s="18"/>
+      <c r="E95" s="38"/>
+      <c r="F95" s="18"/>
+      <c r="N95" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" s="22"/>
-      <c r="B96" s="10">
+      <c r="A96" s="18"/>
+      <c r="B96" s="19">
         <v>3.0000000000003699</v>
       </c>
-      <c r="C96" s="14">
+      <c r="C96" s="20">
         <f t="shared" ref="C96:C105" si="10">B96-N96</f>
         <v>3.6992631180510216E-13</v>
       </c>
-      <c r="D96" s="22"/>
-      <c r="E96" s="35"/>
-      <c r="F96" s="22"/>
-      <c r="G96" s="4"/>
-      <c r="J96" s="4"/>
-      <c r="K96" s="4"/>
-      <c r="L96" s="4"/>
-      <c r="N96" s="4">
+      <c r="D96" s="18"/>
+      <c r="E96" s="38"/>
+      <c r="F96" s="18"/>
+      <c r="N96" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97" s="22"/>
-      <c r="B97" s="10">
+      <c r="A97" s="18"/>
+      <c r="B97" s="19">
         <v>3.99999999999772</v>
       </c>
-      <c r="C97" s="14">
+      <c r="C97" s="20">
         <f t="shared" si="10"/>
         <v>-2.2799540033702215E-12</v>
       </c>
-      <c r="D97" s="22"/>
-      <c r="E97" s="35"/>
-      <c r="F97" s="22"/>
-      <c r="G97" s="4"/>
-      <c r="J97" s="4"/>
-      <c r="K97" s="4"/>
-      <c r="L97" s="4"/>
-      <c r="N97" s="4">
+      <c r="D97" s="18"/>
+      <c r="E97" s="38"/>
+      <c r="F97" s="18"/>
+      <c r="N97" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98" s="22"/>
-      <c r="B98" s="10">
+      <c r="A98" s="18"/>
+      <c r="B98" s="19">
         <v>5.0000000000012097</v>
       </c>
-      <c r="C98" s="14">
+      <c r="C98" s="20">
         <f t="shared" si="10"/>
         <v>1.2096990076315706E-12</v>
       </c>
-      <c r="D98" s="22"/>
-      <c r="E98" s="35"/>
-      <c r="F98" s="22"/>
-      <c r="G98" s="4"/>
-      <c r="J98" s="4"/>
-      <c r="K98" s="4"/>
-      <c r="L98" s="4"/>
-      <c r="N98" s="4">
+      <c r="D98" s="18"/>
+      <c r="E98" s="38"/>
+      <c r="F98" s="18"/>
+      <c r="N98" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99" s="22"/>
-      <c r="B99" s="10">
+      <c r="A99" s="18"/>
+      <c r="B99" s="19">
         <v>6.0000000000013998</v>
       </c>
-      <c r="C99" s="14">
+      <c r="C99" s="20">
         <f t="shared" si="10"/>
         <v>1.3997691894473974E-12</v>
       </c>
-      <c r="D99" s="22"/>
-      <c r="E99" s="35"/>
-      <c r="F99" s="22"/>
-      <c r="G99" s="4"/>
-      <c r="J99" s="4"/>
-      <c r="K99" s="4"/>
-      <c r="L99" s="4"/>
-      <c r="N99" s="4">
+      <c r="D99" s="18"/>
+      <c r="E99" s="38"/>
+      <c r="F99" s="18"/>
+      <c r="N99" s="12">
         <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100" s="22"/>
-      <c r="B100" s="10">
+      <c r="A100" s="18"/>
+      <c r="B100" s="19">
         <v>7.0000000000004103</v>
       </c>
-      <c r="C100" s="14">
+      <c r="C100" s="20">
         <f t="shared" si="10"/>
         <v>4.1033842990145786E-13</v>
       </c>
-      <c r="D100" s="22"/>
-      <c r="E100" s="35"/>
-      <c r="F100" s="22"/>
-      <c r="G100" s="4"/>
-      <c r="J100" s="4"/>
-      <c r="K100" s="4"/>
-      <c r="L100" s="4"/>
-      <c r="N100" s="4">
+      <c r="D100" s="18"/>
+      <c r="E100" s="38"/>
+      <c r="F100" s="18"/>
+      <c r="N100" s="12">
         <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" s="22"/>
-      <c r="B101" s="10">
+      <c r="A101" s="18"/>
+      <c r="B101" s="19">
         <v>7.9999999999999396</v>
       </c>
-      <c r="C101" s="14">
+      <c r="C101" s="20">
         <f t="shared" si="10"/>
         <v>-6.0396132539608516E-14</v>
       </c>
-      <c r="D101" s="22"/>
-      <c r="E101" s="35"/>
-      <c r="F101" s="22"/>
-      <c r="G101" s="4"/>
-      <c r="J101" s="4"/>
-      <c r="K101" s="4"/>
-      <c r="L101" s="4"/>
-      <c r="N101" s="4">
+      <c r="D101" s="18"/>
+      <c r="E101" s="38"/>
+      <c r="F101" s="18"/>
+      <c r="N101" s="12">
         <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A102" s="22"/>
-      <c r="B102" s="10">
+      <c r="A102" s="18"/>
+      <c r="B102" s="19">
         <v>8.9999999999991402</v>
       </c>
-      <c r="C102" s="14">
+      <c r="C102" s="20">
         <f t="shared" si="10"/>
         <v>-8.5975671026972122E-13</v>
       </c>
-      <c r="D102" s="22"/>
-      <c r="E102" s="35"/>
-      <c r="F102" s="22"/>
-      <c r="G102" s="4"/>
-      <c r="J102" s="4"/>
-      <c r="K102" s="4"/>
-      <c r="L102" s="4"/>
-      <c r="N102" s="4">
+      <c r="D102" s="18"/>
+      <c r="E102" s="38"/>
+      <c r="F102" s="18"/>
+      <c r="N102" s="12">
         <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A103" s="22"/>
-      <c r="B103" s="10">
+      <c r="A103" s="18"/>
+      <c r="B103" s="19">
         <v>9.9999999999997797</v>
       </c>
-      <c r="C103" s="14">
+      <c r="C103" s="20">
         <f t="shared" si="10"/>
         <v>-2.2026824808563106E-13</v>
       </c>
-      <c r="D103" s="22"/>
-      <c r="E103" s="35"/>
-      <c r="F103" s="22"/>
-      <c r="G103" s="4"/>
-      <c r="J103" s="4"/>
-      <c r="K103" s="4"/>
-      <c r="L103" s="4"/>
-      <c r="N103" s="4">
+      <c r="D103" s="18"/>
+      <c r="E103" s="38"/>
+      <c r="F103" s="18"/>
+      <c r="N103" s="12">
         <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A104" s="22"/>
-      <c r="B104" s="10">
+      <c r="A104" s="18"/>
+      <c r="B104" s="19">
         <v>11.0000000000006</v>
       </c>
-      <c r="C104" s="14">
+      <c r="C104" s="20">
         <f t="shared" si="10"/>
         <v>6.0040861171728466E-13</v>
       </c>
-      <c r="D104" s="22"/>
-      <c r="E104" s="35"/>
-      <c r="F104" s="22"/>
-      <c r="G104" s="4"/>
-      <c r="J104" s="4"/>
-      <c r="K104" s="4"/>
-      <c r="L104" s="4"/>
-      <c r="N104" s="4">
+      <c r="D104" s="18"/>
+      <c r="E104" s="38"/>
+      <c r="F104" s="18"/>
+      <c r="N104" s="12">
         <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="23"/>
-      <c r="B105" s="11">
+      <c r="B105" s="24">
         <v>11.999999999999201</v>
       </c>
-      <c r="C105" s="16">
+      <c r="C105" s="37">
         <f t="shared" si="10"/>
         <v>-7.9936057773011271E-13</v>
       </c>
       <c r="D105" s="23"/>
-      <c r="E105" s="36"/>
+      <c r="E105" s="38"/>
       <c r="F105" s="23"/>
-      <c r="G105" s="4"/>
-      <c r="J105" s="4"/>
-      <c r="K105" s="4"/>
-      <c r="L105" s="4"/>
-      <c r="N105" s="4">
+      <c r="N105" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="8" t="s">
+    <row r="106" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B106" s="9" t="s">
+      <c r="B106" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="C106" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D106" s="8" t="s">
+      <c r="D106" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E106" s="6" t="s">
+      <c r="E106" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F106" s="8" t="s">
+      <c r="F106" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3369,8 +3437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3909EB81-9643-4117-8AD8-0B16451979DB}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3380,170 +3448,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="37">
+      <c r="B2" s="3">
         <v>4160</v>
       </c>
-      <c r="C2" s="38">
+      <c r="C2" s="4">
         <v>4.0952999999999998E-11</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="2">
         <v>2979</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="2">
         <v>763</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="2">
         <v>7.6000000000000004E-14</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="2">
         <v>714</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="39">
+      <c r="B4" s="5">
         <v>6</v>
       </c>
-      <c r="C4" s="40">
-        <v>8.8703670000000005E-9</v>
-      </c>
-      <c r="D4" s="39">
+      <c r="C4" s="6">
+        <v>8.8583859999999996E-9</v>
+      </c>
+      <c r="D4" s="5">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="5">
         <v>12</v>
       </c>
-      <c r="C5" s="39">
-        <v>8.9999999999999995E-15</v>
-      </c>
-      <c r="D5" s="39">
+      <c r="C5" s="5">
+        <v>8.0000000000000006E-15</v>
+      </c>
+      <c r="D5" s="5">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="39">
+      <c r="B6" s="5">
         <v>5</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="5">
         <v>1.0000000000000001E-15</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="39">
+      <c r="B10" s="5">
         <v>945</v>
       </c>
-      <c r="C10" s="40">
+      <c r="C10" s="6">
         <v>3.5404999999999999E-11</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="5">
         <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="39">
+      <c r="B11" s="5">
         <v>44</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="5">
         <v>2.2000000000000001E-14</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B12" s="5">
         <v>6</v>
       </c>
-      <c r="C12" s="40">
+      <c r="C12" s="6">
         <v>1.6440109999999999E-8</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="39">
+      <c r="B13" s="5">
         <v>11</v>
       </c>
-      <c r="C13" s="39">
-        <v>6.2000000000000001E-14</v>
-      </c>
-      <c r="D13" s="39">
+      <c r="C13" s="5">
+        <v>7.3000000000000004E-14</v>
+      </c>
+      <c r="D13" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="39">
+      <c r="B14" s="5">
         <v>5</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="5">
         <v>4.0000000000000003E-15</v>
       </c>
-      <c r="D14" s="39">
+      <c r="D14" s="5">
         <v>1</v>
       </c>
     </row>
@@ -3554,1718 +3622,2366 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31462638-E7F6-4AA6-B48C-88314E782373}">
-  <dimension ref="A1:N76"/>
+  <dimension ref="A1:AD76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="41"/>
-    <col min="2" max="2" width="20.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="43"/>
-    <col min="4" max="4" width="9.140625" style="41"/>
-    <col min="5" max="5" width="12" style="43" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="41"/>
-    <col min="8" max="8" width="66.28515625" style="42" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="43"/>
-    <col min="10" max="10" width="9.140625" style="41"/>
-    <col min="11" max="11" width="11.28515625" style="43" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="41"/>
+    <col min="1" max="1" width="6.42578125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="36" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="30" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="8" style="30" customWidth="1"/>
+    <col min="6" max="6" width="0" style="12" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="36" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" style="30" customWidth="1"/>
+    <col min="10" max="10" width="5.28515625" style="12" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="30" customWidth="1"/>
+    <col min="12" max="14" width="9.140625" style="12"/>
+    <col min="15" max="15" width="3.140625" style="12" customWidth="1"/>
+    <col min="16" max="17" width="9.140625" style="12"/>
+    <col min="18" max="18" width="7.5703125" style="12" customWidth="1"/>
+    <col min="19" max="19" width="16.28515625" style="36" customWidth="1"/>
+    <col min="20" max="20" width="11" style="30" customWidth="1"/>
+    <col min="21" max="21" width="5.28515625" style="12" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="30" customWidth="1"/>
+    <col min="23" max="23" width="1.28515625" style="12" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="6.85546875" style="12" customWidth="1"/>
+    <col min="25" max="25" width="17.28515625" style="36" customWidth="1"/>
+    <col min="26" max="26" width="9.140625" style="30"/>
+    <col min="27" max="27" width="5.28515625" style="12" customWidth="1"/>
+    <col min="28" max="28" width="8.42578125" style="30" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:30" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="6" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="8"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="L1" s="7"/>
+      <c r="O1" s="41"/>
+      <c r="R1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" s="45"/>
+      <c r="X1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z1" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA1" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB1" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC1" s="42"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="42">
+      <c r="B2" s="14">
         <v>1.00017895409209</v>
       </c>
-      <c r="C2" s="43">
+      <c r="C2" s="15">
         <f>B2-N2</f>
         <v>1.7895409209001123E-4</v>
       </c>
-      <c r="D2" s="45">
+      <c r="D2" s="13">
         <v>9</v>
       </c>
-      <c r="E2" s="46">
+      <c r="E2" s="47">
         <v>3.0598239999999999E-9</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="42">
+      <c r="H2" s="14">
         <v>1.00001792142718</v>
       </c>
-      <c r="I2" s="43">
+      <c r="I2" s="15">
         <f>H2-N2</f>
         <v>1.7921427180045413E-5</v>
       </c>
-      <c r="J2" s="45">
+      <c r="J2" s="13">
         <v>9</v>
       </c>
-      <c r="K2" s="46">
+      <c r="K2" s="47">
         <v>3.15295E-10</v>
       </c>
-      <c r="N2" s="41">
+      <c r="N2" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="42">
+      <c r="O2" s="41"/>
+      <c r="R2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="48">
+        <v>0.99992053678903103</v>
+      </c>
+      <c r="T2" s="49">
+        <f>S2-AD2</f>
+        <v>-7.9463210968966358E-5</v>
+      </c>
+      <c r="U2" s="33">
+        <v>12</v>
+      </c>
+      <c r="V2" s="50">
+        <v>4.29824E-10</v>
+      </c>
+      <c r="W2" s="51"/>
+      <c r="X2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y2" s="48">
+        <v>0.99999172324165397</v>
+      </c>
+      <c r="Z2" s="49">
+        <f>Y2-AD2</f>
+        <v>-8.2767583460263694E-6</v>
+      </c>
+      <c r="AA2" s="33">
+        <v>12</v>
+      </c>
+      <c r="AB2" s="50">
+        <v>4.7218999999999997E-11</v>
+      </c>
+      <c r="AD2" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="22"/>
+      <c r="B3" s="19">
         <v>1.99555032306252</v>
       </c>
-      <c r="C3" s="43">
+      <c r="C3" s="20">
         <f t="shared" ref="C3:C8" si="0">B3-N3</f>
         <v>-4.449676937479996E-3</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="47"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="42">
+      <c r="D3" s="18"/>
+      <c r="E3" s="52"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="19">
         <v>1.9995658793554101</v>
       </c>
-      <c r="I3" s="43">
+      <c r="I3" s="20">
         <f t="shared" ref="I3:I8" si="1">H3-N3</f>
         <v>-4.3412064458991928E-4</v>
       </c>
-      <c r="J3" s="44"/>
-      <c r="K3" s="47"/>
-      <c r="N3" s="41">
+      <c r="J3" s="18"/>
+      <c r="K3" s="52"/>
+      <c r="N3" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="42">
+      <c r="O3" s="41"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="53">
+        <v>2.0023812723577299</v>
+      </c>
+      <c r="T3" s="54">
+        <f t="shared" ref="T3:T31" si="2">S3-AD3</f>
+        <v>2.3812723577298911E-3</v>
+      </c>
+      <c r="U3" s="34"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="53">
+        <v>2.0002367255718401</v>
+      </c>
+      <c r="Z3" s="54">
+        <f t="shared" ref="Z3:Z21" si="3">Y3-AD3</f>
+        <v>2.3672557184006848E-4</v>
+      </c>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="55"/>
+      <c r="AD3" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" s="22"/>
+      <c r="B4" s="19">
         <v>3.0247840124616698</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="20">
         <f t="shared" si="0"/>
         <v>2.4784012461669835E-2</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="47"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="42">
+      <c r="D4" s="18"/>
+      <c r="E4" s="52"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="19">
         <v>3.0023371610461398</v>
       </c>
-      <c r="I4" s="43">
+      <c r="I4" s="20">
         <f t="shared" si="1"/>
         <v>2.3371610461397907E-3</v>
       </c>
-      <c r="J4" s="44"/>
-      <c r="K4" s="47"/>
-      <c r="N4" s="41">
+      <c r="J4" s="18"/>
+      <c r="K4" s="52"/>
+      <c r="N4" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
-      <c r="B5" s="42">
+      <c r="O4" s="41"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="53">
+        <v>2.9841656922953002</v>
+      </c>
+      <c r="T4" s="54">
+        <f t="shared" si="2"/>
+        <v>-1.5834307704699846E-2</v>
+      </c>
+      <c r="U4" s="34"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="53">
+        <v>2.9985081428081002</v>
+      </c>
+      <c r="Z4" s="54">
+        <f t="shared" si="3"/>
+        <v>-1.4918571918998147E-3</v>
+      </c>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="55"/>
+      <c r="AD4" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
+      <c r="B5" s="19">
         <v>3.9557658755677401</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="20">
         <f t="shared" si="0"/>
         <v>-4.4234124432259936E-2</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="47"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="42">
+      <c r="D5" s="18"/>
+      <c r="E5" s="52"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="19">
         <v>3.9961517871506098</v>
       </c>
-      <c r="I5" s="43">
+      <c r="I5" s="20">
         <f t="shared" si="1"/>
         <v>-3.8482128493901868E-3</v>
       </c>
-      <c r="J5" s="44"/>
-      <c r="K5" s="47"/>
-      <c r="N5" s="41">
+      <c r="J5" s="18"/>
+      <c r="K5" s="52"/>
+      <c r="N5" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="42">
+      <c r="O5" s="41"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="53">
+        <v>4.0336077829403898</v>
+      </c>
+      <c r="T5" s="54">
+        <f t="shared" si="2"/>
+        <v>3.3607782940389797E-2</v>
+      </c>
+      <c r="U5" s="34"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="56"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="53">
+        <v>4.0028621634626402</v>
+      </c>
+      <c r="Z5" s="54">
+        <f t="shared" si="3"/>
+        <v>2.8621634626402326E-3</v>
+      </c>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="55"/>
+      <c r="AD5" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" s="22"/>
+      <c r="B6" s="19">
         <v>5.00722056231076</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="20">
         <f t="shared" si="0"/>
         <v>7.2205623107599592E-3</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="47"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="42">
+      <c r="D6" s="18"/>
+      <c r="E6" s="52"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="19">
         <v>4.9997103862051802</v>
       </c>
-      <c r="I6" s="43">
+      <c r="I6" s="20">
         <f t="shared" si="1"/>
         <v>-2.8961379481984295E-4</v>
       </c>
-      <c r="J6" s="44"/>
-      <c r="K6" s="47"/>
-      <c r="N6" s="41">
+      <c r="J6" s="18"/>
+      <c r="K6" s="52"/>
+      <c r="N6" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="42">
+      <c r="O6" s="41"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="53">
+        <v>4.9908051005048302</v>
+      </c>
+      <c r="T6" s="54">
+        <f t="shared" si="2"/>
+        <v>-9.1948994951698282E-3</v>
+      </c>
+      <c r="U6" s="34"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="53">
+        <v>4.9999129134794602</v>
+      </c>
+      <c r="Z6" s="54">
+        <f t="shared" si="3"/>
+        <v>-8.7086520539791934E-5</v>
+      </c>
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="55"/>
+      <c r="AD6" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="19">
         <v>6.0446724726002596</v>
       </c>
-      <c r="C7" s="43">
+      <c r="C7" s="20">
         <f t="shared" si="0"/>
         <v>4.4672472600259638E-2</v>
       </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="47"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="42">
+      <c r="D7" s="18"/>
+      <c r="E7" s="52"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="19">
         <v>6.0052707442160198</v>
       </c>
-      <c r="I7" s="43">
+      <c r="I7" s="20">
         <f t="shared" si="1"/>
         <v>5.270744216019807E-3</v>
       </c>
-      <c r="J7" s="44"/>
-      <c r="K7" s="47"/>
-      <c r="N7" s="41">
+      <c r="J7" s="18"/>
+      <c r="K7" s="52"/>
+      <c r="N7" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="42">
+      <c r="O7" s="41"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="53">
+        <v>5.9711602891438798</v>
+      </c>
+      <c r="T7" s="54">
+        <f t="shared" si="2"/>
+        <v>-2.8839710856120249E-2</v>
+      </c>
+      <c r="U7" s="34"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="53">
+        <v>5.9970663582987003</v>
+      </c>
+      <c r="Z7" s="54">
+        <f t="shared" si="3"/>
+        <v>-2.9336417012997273E-3</v>
+      </c>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="55"/>
+      <c r="AD7" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="27"/>
+      <c r="B8" s="24">
         <v>6.9716748746555801</v>
       </c>
-      <c r="C8" s="43">
+      <c r="C8" s="25">
         <f t="shared" si="0"/>
         <v>-2.8325125344419888E-2</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="47"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="42">
+      <c r="D8" s="23"/>
+      <c r="E8" s="57"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="24">
         <v>6.9969312272025697</v>
       </c>
-      <c r="I8" s="43">
+      <c r="I8" s="25">
         <f t="shared" si="1"/>
         <v>-3.0687727974303414E-3</v>
       </c>
-      <c r="J8" s="44"/>
-      <c r="K8" s="47"/>
-      <c r="N8" s="41">
+      <c r="J8" s="23"/>
+      <c r="K8" s="57"/>
+      <c r="N8" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="O8" s="41"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="53">
+        <v>6.9929973825359699</v>
+      </c>
+      <c r="T8" s="54">
+        <f t="shared" si="2"/>
+        <v>-7.0026174640300809E-3</v>
+      </c>
+      <c r="U8" s="34"/>
+      <c r="V8" s="55"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="53">
+        <v>6.9985063381286796</v>
+      </c>
+      <c r="Z8" s="54">
+        <f t="shared" si="3"/>
+        <v>-1.4936618713203842E-3</v>
+      </c>
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="55"/>
+      <c r="AD8" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="42">
+      <c r="B9" s="14">
         <v>1.0000000061855301</v>
       </c>
-      <c r="C9" s="43">
+      <c r="C9" s="15">
         <f>B9-N9</f>
         <v>6.1855300881319408E-9</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="13">
         <v>2</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="47">
         <v>1.08722E-10</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="14">
         <v>0.99988393785566099</v>
       </c>
-      <c r="I9" s="43">
+      <c r="I9" s="15">
         <f>H9-N9</f>
         <v>-1.1606214433901307E-4</v>
       </c>
-      <c r="J9" s="45">
+      <c r="J9" s="13">
         <v>2</v>
       </c>
-      <c r="K9" s="46">
+      <c r="K9" s="47">
         <v>7.8849599999999998E-10</v>
       </c>
-      <c r="N9" s="41">
+      <c r="N9" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
-      <c r="B10" s="42">
+      <c r="O9" s="41"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="53">
+        <v>8.0245846700801309</v>
+      </c>
+      <c r="T9" s="54">
+        <f t="shared" si="2"/>
+        <v>2.4584670080130877E-2</v>
+      </c>
+      <c r="U9" s="34"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="53">
+        <v>8.0023496100454405</v>
+      </c>
+      <c r="Z9" s="54">
+        <f t="shared" si="3"/>
+        <v>2.3496100454405422E-3</v>
+      </c>
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="55"/>
+      <c r="AD9" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+      <c r="B10" s="19">
         <v>1.9999999755607201</v>
       </c>
-      <c r="C10" s="43">
-        <f t="shared" ref="C10:C15" si="2">B10-N10</f>
+      <c r="C10" s="20">
+        <f t="shared" ref="C10:C15" si="4">B10-N10</f>
         <v>-2.4439279933119451E-8</v>
       </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="47"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="42">
+      <c r="D10" s="18"/>
+      <c r="E10" s="52"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="19">
         <v>2.0048700741388998</v>
       </c>
-      <c r="I10" s="43">
-        <f t="shared" ref="I10:I15" si="3">H10-N10</f>
+      <c r="I10" s="20">
+        <f t="shared" ref="I10:I15" si="5">H10-N10</f>
         <v>4.8700741388998381E-3</v>
       </c>
-      <c r="J10" s="44"/>
-      <c r="K10" s="47"/>
-      <c r="N10" s="41">
+      <c r="J10" s="18"/>
+      <c r="K10" s="52"/>
+      <c r="N10" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
-      <c r="B11" s="42">
+      <c r="O10" s="41"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="53">
+        <v>9.0277430566902304</v>
+      </c>
+      <c r="T10" s="54">
+        <f t="shared" si="2"/>
+        <v>2.7743056690230361E-2</v>
+      </c>
+      <c r="U10" s="34"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="53">
+        <v>9.0037683462833709</v>
+      </c>
+      <c r="Z10" s="54">
+        <f t="shared" si="3"/>
+        <v>3.7683462833708603E-3</v>
+      </c>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="55"/>
+      <c r="AD10" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="B11" s="19">
         <v>3.0000000244842799</v>
       </c>
-      <c r="C11" s="43">
-        <f t="shared" si="2"/>
+      <c r="C11" s="20">
+        <f t="shared" si="4"/>
         <v>2.4484279936842768E-8</v>
       </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="47"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="42">
+      <c r="D11" s="18"/>
+      <c r="E11" s="52"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="19">
         <v>2.9513336092707498</v>
       </c>
-      <c r="I11" s="43">
+      <c r="I11" s="20">
+        <f t="shared" si="5"/>
+        <v>-4.8666390729250164E-2</v>
+      </c>
+      <c r="J11" s="18"/>
+      <c r="K11" s="52"/>
+      <c r="N11" s="12">
+        <v>3</v>
+      </c>
+      <c r="O11" s="41"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="46">
+        <v>9.9725531060639003</v>
+      </c>
+      <c r="T11" s="37">
+        <f t="shared" si="2"/>
+        <v>-2.744689393609967E-2</v>
+      </c>
+      <c r="U11" s="35"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="46">
+        <v>9.9967899028880502</v>
+      </c>
+      <c r="Z11" s="37">
         <f t="shared" si="3"/>
-        <v>-4.8666390729250164E-2</v>
-      </c>
-      <c r="J11" s="44"/>
-      <c r="K11" s="47"/>
-      <c r="N11" s="41">
+        <v>-3.2100971119497501E-3</v>
+      </c>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="58"/>
+      <c r="AD11" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="19">
+        <v>4.0000000112093996</v>
+      </c>
+      <c r="C12" s="20">
+        <f t="shared" si="4"/>
+        <v>1.1209399630729422E-8</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="52"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="19">
+        <v>4.1945579686151504</v>
+      </c>
+      <c r="I12" s="20">
+        <f t="shared" si="5"/>
+        <v>0.1945579686151504</v>
+      </c>
+      <c r="J12" s="18"/>
+      <c r="K12" s="52"/>
+      <c r="N12" s="12">
+        <v>4</v>
+      </c>
+      <c r="O12" s="41"/>
+      <c r="R12" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="S12" s="48">
+        <v>1.0000058863178101</v>
+      </c>
+      <c r="T12" s="49">
+        <f t="shared" si="2"/>
+        <v>5.8863178100665436E-6</v>
+      </c>
+      <c r="U12" s="33">
+        <v>5</v>
+      </c>
+      <c r="V12" s="50">
+        <v>9.2291587399999997E-7</v>
+      </c>
+      <c r="W12" s="51"/>
+      <c r="X12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y12" s="59">
+        <v>-174.25218233777699</v>
+      </c>
+      <c r="Z12" s="49">
+        <f t="shared" si="3"/>
+        <v>-175.25218233777699</v>
+      </c>
+      <c r="AA12" s="33">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
-      <c r="B12" s="42">
-        <v>4.0000000112093996</v>
-      </c>
-      <c r="C12" s="43">
-        <f t="shared" si="2"/>
-        <v>1.1209399630729422E-8</v>
-      </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="47"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="42">
-        <v>4.1945579686151504</v>
-      </c>
-      <c r="I12" s="43">
+      <c r="AB12" s="50">
+        <v>9.5780085489999992E-6</v>
+      </c>
+      <c r="AD12" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="19">
+        <v>4.9999999366482504</v>
+      </c>
+      <c r="C13" s="20">
+        <f t="shared" si="4"/>
+        <v>-6.3351749624018794E-8</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="52"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="19">
+        <v>4.6353660088041897</v>
+      </c>
+      <c r="I13" s="20">
+        <f t="shared" si="5"/>
+        <v>-0.3646339911958103</v>
+      </c>
+      <c r="J13" s="18"/>
+      <c r="K13" s="52"/>
+      <c r="N13" s="12">
+        <v>5</v>
+      </c>
+      <c r="O13" s="41"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="53">
+        <v>2.00017338363469</v>
+      </c>
+      <c r="T13" s="54">
+        <f t="shared" si="2"/>
+        <v>1.7338363468999418E-4</v>
+      </c>
+      <c r="U13" s="34"/>
+      <c r="V13" s="55"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="60">
+        <v>15770.155071580901</v>
+      </c>
+      <c r="Z13" s="54">
         <f t="shared" si="3"/>
-        <v>0.1945579686151504</v>
-      </c>
-      <c r="J12" s="44"/>
-      <c r="K12" s="47"/>
-      <c r="N12" s="41">
+        <v>15768.155071580901</v>
+      </c>
+      <c r="AA13" s="34"/>
+      <c r="AB13" s="55"/>
+      <c r="AD13" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="19">
+        <v>6.00000006648024</v>
+      </c>
+      <c r="C14" s="20">
+        <f t="shared" si="4"/>
+        <v>6.6480239979682665E-8</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="52"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="19">
+        <v>6.3207606786078303</v>
+      </c>
+      <c r="I14" s="20">
+        <f t="shared" si="5"/>
+        <v>0.32076067860783031</v>
+      </c>
+      <c r="J14" s="18"/>
+      <c r="K14" s="52"/>
+      <c r="N14" s="12">
+        <v>6</v>
+      </c>
+      <c r="O14" s="41"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="53">
+        <v>2.9991633183083599</v>
+      </c>
+      <c r="T14" s="54">
+        <f t="shared" si="2"/>
+        <v>-8.3668169164008432E-4</v>
+      </c>
+      <c r="U14" s="34"/>
+      <c r="V14" s="55"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="61">
+        <v>-346812.85709508503</v>
+      </c>
+      <c r="Z14" s="54">
+        <f t="shared" si="3"/>
+        <v>-346815.85709508503</v>
+      </c>
+      <c r="AA14" s="34"/>
+      <c r="AB14" s="55"/>
+      <c r="AD14" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="24">
+        <v>6.9999999766243901</v>
+      </c>
+      <c r="C15" s="25">
+        <f t="shared" si="4"/>
+        <v>-2.3375609892184457E-8</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="57"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="24">
+        <v>6.8931124381142403</v>
+      </c>
+      <c r="I15" s="25">
+        <f t="shared" si="5"/>
+        <v>-0.10688756188575965</v>
+      </c>
+      <c r="J15" s="23"/>
+      <c r="K15" s="57"/>
+      <c r="N15" s="12">
+        <v>7</v>
+      </c>
+      <c r="O15" s="41"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="53">
+        <v>4.0028584104789999</v>
+      </c>
+      <c r="T15" s="54">
+        <f t="shared" si="2"/>
+        <v>2.8584104789999287E-3</v>
+      </c>
+      <c r="U15" s="34"/>
+      <c r="V15" s="55"/>
+      <c r="W15" s="56"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="61">
+        <v>3236291.0237667002</v>
+      </c>
+      <c r="Z15" s="54">
+        <f t="shared" si="3"/>
+        <v>3236287.0237667002</v>
+      </c>
+      <c r="AA15" s="34"/>
+      <c r="AB15" s="55"/>
+      <c r="AD15" s="12">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
-      <c r="B13" s="42">
-        <v>4.9999999366482504</v>
-      </c>
-      <c r="C13" s="43">
-        <f t="shared" si="2"/>
-        <v>-6.3351749624018794E-8</v>
-      </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="47"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="42">
-        <v>4.6353660088041897</v>
-      </c>
-      <c r="I13" s="43">
-        <f t="shared" si="3"/>
-        <v>-0.3646339911958103</v>
-      </c>
-      <c r="J13" s="44"/>
-      <c r="K13" s="47"/>
-      <c r="N13" s="41">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
-      <c r="B14" s="42">
-        <v>6.00000006648024</v>
-      </c>
-      <c r="C14" s="43">
-        <f t="shared" si="2"/>
-        <v>6.6480239979682665E-8</v>
-      </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="47"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="42">
-        <v>6.3207606786078303</v>
-      </c>
-      <c r="I14" s="43">
-        <f t="shared" si="3"/>
-        <v>0.32076067860783031</v>
-      </c>
-      <c r="J14" s="44"/>
-      <c r="K14" s="47"/>
-      <c r="N14" s="41">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
-      <c r="B15" s="42">
-        <v>6.9999999766243901</v>
-      </c>
-      <c r="C15" s="43">
-        <f t="shared" si="2"/>
-        <v>-2.3375609892184457E-8</v>
-      </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="47"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="42">
-        <v>6.8931124381142403</v>
-      </c>
-      <c r="I15" s="43">
-        <f t="shared" si="3"/>
-        <v>-0.10688756188575965</v>
-      </c>
-      <c r="J15" s="44"/>
-      <c r="K15" s="47"/>
-      <c r="N15" s="41">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+    <row r="16" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="42">
+      <c r="B16" s="14">
         <v>0.99999999998584699</v>
       </c>
-      <c r="C16" s="43">
+      <c r="C16" s="15">
         <f>B16-N16</f>
         <v>-1.4153012095619033E-11</v>
       </c>
-      <c r="D16" s="45">
+      <c r="D16" s="13">
         <v>2</v>
       </c>
-      <c r="E16" s="46">
+      <c r="E16" s="47">
         <v>1.0000000000000001E-15</v>
       </c>
-      <c r="N16" s="41">
+      <c r="N16" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="42">
+      <c r="O16" s="41"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="53">
+        <v>4.9922579703654701</v>
+      </c>
+      <c r="T16" s="54">
+        <f t="shared" si="2"/>
+        <v>-7.7420296345298567E-3</v>
+      </c>
+      <c r="U16" s="34"/>
+      <c r="V16" s="55"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="62">
+        <v>-15774130.6487826</v>
+      </c>
+      <c r="Z16" s="54">
+        <f t="shared" si="3"/>
+        <v>-15774135.6487826</v>
+      </c>
+      <c r="AA16" s="34"/>
+      <c r="AB16" s="55"/>
+      <c r="AD16" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="19">
         <v>2.00000000061251</v>
       </c>
-      <c r="C17" s="43">
-        <f t="shared" ref="C17:C22" si="4">B17-N17</f>
+      <c r="C17" s="20">
+        <f t="shared" ref="C17:C22" si="6">B17-N17</f>
         <v>6.1251004268569886E-10</v>
       </c>
-      <c r="D17" s="44"/>
-      <c r="E17" s="48"/>
-      <c r="N17" s="41">
+      <c r="D17" s="18"/>
+      <c r="E17" s="52"/>
+      <c r="N17" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="42">
+      <c r="O17" s="41"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="53">
+        <v>6.0146966644999296</v>
+      </c>
+      <c r="T17" s="54">
+        <f t="shared" si="2"/>
+        <v>1.4696664499929568E-2</v>
+      </c>
+      <c r="U17" s="34"/>
+      <c r="V17" s="55"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="62">
+        <v>44160879.738887496</v>
+      </c>
+      <c r="Z17" s="54">
+        <f t="shared" si="3"/>
+        <v>44160873.738887496</v>
+      </c>
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="55"/>
+      <c r="AD17" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="19">
         <v>2.9999999937628101</v>
       </c>
-      <c r="C18" s="43">
-        <f t="shared" si="4"/>
+      <c r="C18" s="20">
+        <f t="shared" si="6"/>
         <v>-6.237189875690774E-9</v>
       </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="48"/>
-      <c r="N18" s="41">
+      <c r="D18" s="18"/>
+      <c r="E18" s="52"/>
+      <c r="N18" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="42">
+      <c r="O18" s="41"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="53">
+        <v>6.9815192629896696</v>
+      </c>
+      <c r="T18" s="54">
+        <f t="shared" si="2"/>
+        <v>-1.8480737010330373E-2</v>
+      </c>
+      <c r="U18" s="34"/>
+      <c r="V18" s="55"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="62">
+        <v>-73591673.571157306</v>
+      </c>
+      <c r="Z18" s="54">
+        <f t="shared" si="3"/>
+        <v>-73591680.571157306</v>
+      </c>
+      <c r="AA18" s="34"/>
+      <c r="AB18" s="55"/>
+      <c r="AD18" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="19">
         <v>4.0000000252519703</v>
       </c>
-      <c r="C19" s="43">
-        <f t="shared" si="4"/>
+      <c r="C19" s="20">
+        <f t="shared" si="6"/>
         <v>2.5251970292572423E-8</v>
       </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="48"/>
-      <c r="N19" s="41">
+      <c r="D19" s="18"/>
+      <c r="E19" s="52"/>
+      <c r="N19" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="42">
+      <c r="O19" s="41"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="53">
+        <v>8.0146759395965503</v>
+      </c>
+      <c r="T19" s="54">
+        <f t="shared" si="2"/>
+        <v>1.4675939596550336E-2</v>
+      </c>
+      <c r="U19" s="34"/>
+      <c r="V19" s="55"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="62">
+        <v>72081373.351111293</v>
+      </c>
+      <c r="Z19" s="54">
+        <f t="shared" si="3"/>
+        <v>72081365.351111293</v>
+      </c>
+      <c r="AA19" s="34"/>
+      <c r="AB19" s="55"/>
+      <c r="AD19" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="19">
         <v>4.9999999522424696</v>
       </c>
-      <c r="C20" s="43">
-        <f t="shared" si="4"/>
+      <c r="C20" s="20">
+        <f t="shared" si="6"/>
         <v>-4.7757530374781254E-8</v>
       </c>
-      <c r="D20" s="44"/>
-      <c r="E20" s="48"/>
-      <c r="N20" s="41">
+      <c r="D20" s="18"/>
+      <c r="E20" s="52"/>
+      <c r="N20" s="12">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="42">
+      <c r="O20" s="41"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="53">
+        <v>8.9933448736193498</v>
+      </c>
+      <c r="T20" s="54">
+        <f t="shared" si="2"/>
+        <v>-6.6551263806502448E-3</v>
+      </c>
+      <c r="U20" s="34"/>
+      <c r="V20" s="55"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="62">
+        <v>-38289231.844517998</v>
+      </c>
+      <c r="Z20" s="54">
+        <f t="shared" si="3"/>
+        <v>-38289240.844517998</v>
+      </c>
+      <c r="AA20" s="34"/>
+      <c r="AB20" s="55"/>
+      <c r="AD20" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="19">
         <v>6.0000000422992299</v>
       </c>
-      <c r="C21" s="43">
-        <f t="shared" si="4"/>
+      <c r="C21" s="20">
+        <f t="shared" si="6"/>
         <v>4.2299229896514134E-8</v>
       </c>
-      <c r="D21" s="44"/>
-      <c r="E21" s="48"/>
-      <c r="N21" s="41">
+      <c r="D21" s="18"/>
+      <c r="E21" s="52"/>
+      <c r="N21" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="42">
+      <c r="O21" s="41"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="46">
+        <v>10.001310100411599</v>
+      </c>
+      <c r="T21" s="37">
+        <f t="shared" si="2"/>
+        <v>1.3101004115991799E-3</v>
+      </c>
+      <c r="U21" s="35"/>
+      <c r="V21" s="58"/>
+      <c r="W21" s="45"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="63">
+        <v>8507938.6040933207</v>
+      </c>
+      <c r="Z21" s="37">
+        <f t="shared" si="3"/>
+        <v>8507928.6040933207</v>
+      </c>
+      <c r="AA21" s="35"/>
+      <c r="AB21" s="58"/>
+      <c r="AD21" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22" s="27"/>
+      <c r="B22" s="24">
         <v>6.9999999858291604</v>
       </c>
-      <c r="C22" s="43">
-        <f t="shared" si="4"/>
+      <c r="C22" s="25">
+        <f t="shared" si="6"/>
         <v>-1.4170839612859254E-8</v>
       </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="48"/>
-      <c r="N22" s="41">
+      <c r="D22" s="23"/>
+      <c r="E22" s="57"/>
+      <c r="N22" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="18"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="18"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="18"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="18"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="18"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="18"/>
+      <c r="O22" s="41"/>
+      <c r="R22" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="S22" s="48">
+        <v>1.0000000029662299</v>
+      </c>
+      <c r="T22" s="49">
+        <f t="shared" si="2"/>
+        <v>2.9662299283472748E-9</v>
+      </c>
+      <c r="U22" s="33">
+        <v>2</v>
+      </c>
+      <c r="V22" s="50">
+        <v>1.0000000000000001E-15</v>
+      </c>
+      <c r="AD22" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="O23" s="41"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="53">
+        <v>1.9999997290954901</v>
+      </c>
+      <c r="T23" s="54">
+        <f t="shared" si="2"/>
+        <v>-2.7090450993583204E-7</v>
+      </c>
+      <c r="U23" s="34"/>
+      <c r="V23" s="55"/>
+      <c r="AD23" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="O24" s="41"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="53">
+        <v>3.0000060235493402</v>
+      </c>
+      <c r="T24" s="54">
+        <f t="shared" si="2"/>
+        <v>6.0235493402061024E-6</v>
+      </c>
+      <c r="U24" s="34"/>
+      <c r="V24" s="55"/>
+      <c r="AD24" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="O25" s="41"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="53">
+        <v>3.9999433247651801</v>
+      </c>
+      <c r="T25" s="54">
+        <f t="shared" si="2"/>
+        <v>-5.6675234819891784E-5</v>
+      </c>
+      <c r="U25" s="34"/>
+      <c r="V25" s="55"/>
+      <c r="AD25" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="O26" s="41"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="53">
+        <v>5.0002780482136799</v>
+      </c>
+      <c r="T26" s="54">
+        <f t="shared" si="2"/>
+        <v>2.7804821367993782E-4</v>
+      </c>
+      <c r="U26" s="34"/>
+      <c r="V26" s="55"/>
+      <c r="AD26" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A27" s="56"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="56"/>
+      <c r="O27" s="41"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="53">
+        <v>5.9992174798234599</v>
+      </c>
+      <c r="T27" s="54">
+        <f t="shared" si="2"/>
+        <v>-7.8252017654012462E-4</v>
+      </c>
+      <c r="U27" s="34"/>
+      <c r="V27" s="55"/>
+      <c r="AD27" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A28" s="56"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="56"/>
+      <c r="O28" s="41"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="53">
+        <v>7.0013096867347304</v>
+      </c>
+      <c r="T28" s="54">
+        <f t="shared" si="2"/>
+        <v>1.3096867347304197E-3</v>
+      </c>
+      <c r="U28" s="34"/>
+      <c r="V28" s="55"/>
+      <c r="AD28" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A29" s="56"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="56"/>
+      <c r="O29" s="41"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="53">
+        <v>7.9987125312774197</v>
+      </c>
+      <c r="T29" s="54">
+        <f t="shared" si="2"/>
+        <v>-1.2874687225803427E-3</v>
+      </c>
+      <c r="U29" s="34"/>
+      <c r="V29" s="55"/>
+      <c r="AD29" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A30" s="56"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="56"/>
+      <c r="O30" s="41"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="53">
+        <v>9.00068600557133</v>
+      </c>
+      <c r="T30" s="54">
+        <f t="shared" si="2"/>
+        <v>6.8600557133002837E-4</v>
+      </c>
+      <c r="U30" s="34"/>
+      <c r="V30" s="55"/>
+      <c r="AD30" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A31" s="56"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="56"/>
+      <c r="O31" s="41"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="46">
+        <v>9.9998471647572398</v>
+      </c>
+      <c r="T31" s="37">
+        <f t="shared" si="2"/>
+        <v>-1.5283524276021865E-4</v>
+      </c>
+      <c r="U31" s="35"/>
+      <c r="V31" s="58"/>
+      <c r="AD31" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A32" s="56"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="56"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="18"/>
+      <c r="A33" s="56"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="56"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="18"/>
+      <c r="A34" s="56"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="56"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="18"/>
+      <c r="A35" s="56"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="56"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="18"/>
+      <c r="A36" s="56"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="56"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="18"/>
+      <c r="A37" s="56"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="56"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
-      <c r="B38" s="49"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="18"/>
-    </row>
-    <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
+      <c r="A38" s="56"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="56"/>
+    </row>
+    <row r="39" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+      <c r="A39" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="D39" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="E39" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F39" s="17"/>
-      <c r="G39" s="19" t="s">
+      <c r="F39" s="42"/>
+      <c r="G39" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="H39" s="11" t="s">
+      <c r="H39" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="I39" s="15" t="s">
+      <c r="I39" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="J39" s="17" t="s">
+      <c r="J39" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="K39" s="15" t="s">
+      <c r="K39" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="L39" s="17"/>
+      <c r="L39" s="42"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B40" s="14">
         <v>0.99970897171788597</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="15">
         <f>B40-N28</f>
         <v>0.99970897171788597</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D40" s="13">
         <v>12</v>
       </c>
-      <c r="E40" s="51">
+      <c r="E40" s="64">
         <v>2.382186E-9</v>
       </c>
-      <c r="F40" s="21"/>
-      <c r="G40" s="30" t="s">
+      <c r="F40" s="13"/>
+      <c r="G40" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H40" s="10">
+      <c r="H40" s="19">
         <v>0.99997262143343502</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I40" s="30">
         <f>H40-N40</f>
         <v>0.99997262143343502</v>
       </c>
-      <c r="J40" s="22">
+      <c r="J40" s="18">
         <v>12</v>
       </c>
-      <c r="K40" s="50">
+      <c r="K40" s="65">
         <v>2.3991499999999999E-10</v>
       </c>
-      <c r="L40" s="22"/>
-      <c r="M40" s="41">
+      <c r="L40" s="18"/>
+      <c r="M40" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="10">
+      <c r="A41" s="18"/>
+      <c r="B41" s="19">
         <v>2.0075825717704601</v>
       </c>
-      <c r="C41" s="14">
-        <f t="shared" ref="C41:C75" si="5">B41-N29</f>
+      <c r="C41" s="20">
+        <f t="shared" ref="C41:C75" si="7">B41-N29</f>
         <v>2.0075825717704601</v>
       </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="10">
+      <c r="D41" s="18"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="19">
         <v>2.0006744533356802</v>
       </c>
-      <c r="I41" s="3">
-        <f t="shared" ref="I41:I63" si="6">H41-N41</f>
+      <c r="I41" s="30">
+        <f t="shared" ref="I41:I63" si="8">H41-N41</f>
         <v>2.0006744533356802</v>
       </c>
-      <c r="J41" s="22"/>
-      <c r="K41" s="50"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="41">
+      <c r="J41" s="18"/>
+      <c r="K41" s="65"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
-      <c r="B42" s="10">
+      <c r="A42" s="18"/>
+      <c r="B42" s="19">
         <v>2.9576950936830402</v>
       </c>
-      <c r="C42" s="14">
-        <f t="shared" si="5"/>
+      <c r="C42" s="20">
+        <f t="shared" si="7"/>
         <v>2.9576950936830402</v>
       </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="10">
+      <c r="D42" s="18"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="19">
         <v>2.99650884260328</v>
       </c>
-      <c r="I42" s="3">
-        <f t="shared" si="6"/>
+      <c r="I42" s="30">
+        <f t="shared" si="8"/>
         <v>2.99650884260328</v>
       </c>
-      <c r="J42" s="22"/>
-      <c r="K42" s="50"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="41">
+      <c r="J42" s="18"/>
+      <c r="K42" s="65"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
-      <c r="B43" s="10">
+      <c r="A43" s="18"/>
+      <c r="B43" s="19">
         <v>4.0659613712254101</v>
       </c>
-      <c r="C43" s="14">
-        <f t="shared" si="5"/>
+      <c r="C43" s="20">
+        <f t="shared" si="7"/>
         <v>4.0659613712254101</v>
       </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="10">
+      <c r="D43" s="18"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="19">
         <v>4.0045384679162899</v>
       </c>
-      <c r="I43" s="3">
-        <f t="shared" si="6"/>
+      <c r="I43" s="30">
+        <f t="shared" si="8"/>
         <v>4.0045384679162899</v>
       </c>
-      <c r="J43" s="22"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="41">
+      <c r="J43" s="18"/>
+      <c r="K43" s="65"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="22"/>
-      <c r="B44" s="10">
+      <c r="A44" s="18"/>
+      <c r="B44" s="19">
         <v>5.0136856287748097</v>
       </c>
-      <c r="C44" s="14">
-        <f t="shared" si="5"/>
+      <c r="C44" s="20">
+        <f t="shared" si="7"/>
         <v>5.0136856287748097</v>
       </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="10">
+      <c r="D44" s="18"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="19">
         <v>5.0026969326283899</v>
       </c>
-      <c r="I44" s="3">
-        <f t="shared" si="6"/>
+      <c r="I44" s="30">
+        <f t="shared" si="8"/>
         <v>5.0026969326283899</v>
       </c>
-      <c r="J44" s="22"/>
-      <c r="K44" s="50"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="41">
+      <c r="J44" s="18"/>
+      <c r="K44" s="65"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
-      <c r="B45" s="10">
+      <c r="A45" s="18"/>
+      <c r="B45" s="19">
         <v>5.9546975291897803</v>
       </c>
-      <c r="C45" s="14">
-        <f t="shared" si="5"/>
+      <c r="C45" s="20">
+        <f t="shared" si="7"/>
         <v>5.9546975291897803</v>
       </c>
-      <c r="D45" s="22"/>
-      <c r="E45" s="52"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="10">
+      <c r="D45" s="18"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="19">
         <v>5.99705294429525</v>
       </c>
-      <c r="I45" s="3">
-        <f t="shared" si="6"/>
+      <c r="I45" s="30">
+        <f t="shared" si="8"/>
         <v>5.99705294429525</v>
       </c>
-      <c r="J45" s="22"/>
-      <c r="K45" s="50"/>
-      <c r="L45" s="22"/>
-      <c r="M45" s="41">
+      <c r="J45" s="18"/>
+      <c r="K45" s="65"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="12">
         <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="22"/>
-      <c r="B46" s="10">
+      <c r="A46" s="18"/>
+      <c r="B46" s="19">
         <v>6.9506749549273303</v>
       </c>
-      <c r="C46" s="14">
-        <f t="shared" si="5"/>
+      <c r="C46" s="20">
+        <f t="shared" si="7"/>
         <v>6.9506749549273303</v>
       </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="10">
+      <c r="D46" s="18"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="19">
         <v>6.9946052447663503</v>
       </c>
-      <c r="I46" s="3">
-        <f t="shared" si="6"/>
+      <c r="I46" s="30">
+        <f t="shared" si="8"/>
         <v>6.9946052447663503</v>
       </c>
-      <c r="J46" s="22"/>
-      <c r="K46" s="50"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="41">
+      <c r="J46" s="18"/>
+      <c r="K46" s="65"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="12">
         <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="22"/>
-      <c r="B47" s="10">
+      <c r="A47" s="18"/>
+      <c r="B47" s="19">
         <v>7.9898575112403503</v>
       </c>
-      <c r="C47" s="14">
-        <f t="shared" si="5"/>
+      <c r="C47" s="20">
+        <f t="shared" si="7"/>
         <v>7.9898575112403503</v>
       </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="10">
+      <c r="D47" s="18"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="19">
         <v>7.9972611371367597</v>
       </c>
-      <c r="I47" s="3">
-        <f t="shared" si="6"/>
+      <c r="I47" s="30">
+        <f t="shared" si="8"/>
         <v>7.9972611371367597</v>
       </c>
-      <c r="J47" s="22"/>
-      <c r="K47" s="50"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="41">
+      <c r="J47" s="18"/>
+      <c r="K47" s="65"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="12">
         <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="22"/>
-      <c r="B48" s="10">
+      <c r="A48" s="18"/>
+      <c r="B48" s="19">
         <v>9.0374240725130992</v>
       </c>
-      <c r="C48" s="14">
-        <f t="shared" si="5"/>
+      <c r="C48" s="20">
+        <f t="shared" si="7"/>
         <v>9.0374240725130992</v>
       </c>
-      <c r="D48" s="22"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="10">
+      <c r="D48" s="18"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="19">
         <v>9.0027512279330999</v>
       </c>
-      <c r="I48" s="3">
-        <f t="shared" si="6"/>
+      <c r="I48" s="30">
+        <f t="shared" si="8"/>
         <v>9.0027512279330999</v>
       </c>
-      <c r="J48" s="22"/>
-      <c r="K48" s="50"/>
-      <c r="L48" s="22"/>
-      <c r="M48" s="41">
+      <c r="J48" s="18"/>
+      <c r="K48" s="65"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="12">
         <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="22"/>
-      <c r="B49" s="10">
+      <c r="A49" s="18"/>
+      <c r="B49" s="19">
         <v>10.059311735831001</v>
       </c>
-      <c r="C49" s="14">
-        <f t="shared" si="5"/>
+      <c r="C49" s="20">
+        <f t="shared" si="7"/>
         <v>10.059311735831001</v>
       </c>
-      <c r="D49" s="22"/>
-      <c r="E49" s="52"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="10">
+      <c r="D49" s="18"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="19">
         <v>10.0069461622682</v>
       </c>
-      <c r="I49" s="3">
-        <f t="shared" si="6"/>
+      <c r="I49" s="30">
+        <f t="shared" si="8"/>
         <v>10.0069461622682</v>
       </c>
-      <c r="J49" s="22"/>
-      <c r="K49" s="50"/>
-      <c r="L49" s="22"/>
-      <c r="M49" s="41">
+      <c r="J49" s="18"/>
+      <c r="K49" s="65"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="12">
         <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="22"/>
-      <c r="B50" s="10">
+      <c r="A50" s="18"/>
+      <c r="B50" s="19">
         <v>11.029993123874799</v>
       </c>
-      <c r="C50" s="14">
-        <f t="shared" si="5"/>
+      <c r="C50" s="20">
+        <f t="shared" si="7"/>
         <v>11.029993123874799</v>
       </c>
-      <c r="D50" s="22"/>
-      <c r="E50" s="52"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="10">
+      <c r="D50" s="18"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="19">
         <v>11.004886121481199</v>
       </c>
-      <c r="I50" s="3">
-        <f t="shared" si="6"/>
+      <c r="I50" s="30">
+        <f t="shared" si="8"/>
         <v>11.004886121481199</v>
       </c>
-      <c r="J50" s="22"/>
-      <c r="K50" s="50"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="41">
+      <c r="J50" s="18"/>
+      <c r="K50" s="65"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="12">
         <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="23"/>
-      <c r="B51" s="11">
+      <c r="B51" s="24">
         <v>11.933070186875799</v>
       </c>
-      <c r="C51" s="15">
-        <f t="shared" si="5"/>
+      <c r="C51" s="25">
+        <f t="shared" si="7"/>
         <v>11.933070186875799</v>
       </c>
       <c r="D51" s="23"/>
-      <c r="E51" s="53"/>
+      <c r="E51" s="67"/>
       <c r="F51" s="23"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="10">
+      <c r="G51" s="29"/>
+      <c r="H51" s="19">
         <v>11.9920749535249</v>
       </c>
-      <c r="I51" s="3">
-        <f t="shared" si="6"/>
+      <c r="I51" s="30">
+        <f t="shared" si="8"/>
         <v>11.9920749535249</v>
       </c>
-      <c r="J51" s="22"/>
-      <c r="K51" s="50"/>
-      <c r="L51" s="22"/>
-      <c r="M51" s="41">
+      <c r="J51" s="18"/>
+      <c r="K51" s="65"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B52" s="19">
         <v>1.0107468174279299</v>
       </c>
-      <c r="C52" s="3">
-        <f t="shared" si="5"/>
+      <c r="C52" s="30">
+        <f t="shared" si="7"/>
         <v>1.0107468174279299</v>
       </c>
-      <c r="D52" s="22">
+      <c r="D52" s="18">
         <v>11</v>
       </c>
-      <c r="E52" s="50">
+      <c r="E52" s="65">
         <v>4.8010097133000001E-4</v>
       </c>
-      <c r="F52" s="22"/>
-      <c r="G52" s="31" t="s">
+      <c r="F52" s="18"/>
+      <c r="G52" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H52" s="12">
+      <c r="H52" s="68">
         <v>-1635564.6942117501</v>
       </c>
-      <c r="I52" s="13">
-        <f t="shared" si="6"/>
+      <c r="I52" s="15">
+        <f t="shared" si="8"/>
         <v>-1635564.6942117501</v>
       </c>
-      <c r="J52" s="21">
+      <c r="J52" s="13">
         <v>11</v>
       </c>
-      <c r="K52" s="51">
+      <c r="K52" s="64">
         <v>3.4676791761270001E-3</v>
       </c>
-      <c r="L52" s="21"/>
-      <c r="M52" s="41">
+      <c r="L52" s="13"/>
+      <c r="M52" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="22"/>
-      <c r="B53" s="10">
+      <c r="A53" s="18"/>
+      <c r="B53" s="19">
         <v>1.9936494704494201</v>
       </c>
-      <c r="C53" s="3">
-        <f t="shared" si="5"/>
+      <c r="C53" s="30">
+        <f t="shared" si="7"/>
         <v>1.9936494704494201</v>
       </c>
-      <c r="D53" s="22"/>
-      <c r="E53" s="50"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="10">
+      <c r="D53" s="18"/>
+      <c r="E53" s="65"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="69">
         <v>216052011.47539401</v>
       </c>
-      <c r="I53" s="14">
-        <f t="shared" si="6"/>
+      <c r="I53" s="20">
+        <f t="shared" si="8"/>
         <v>216052011.47539401</v>
       </c>
-      <c r="J53" s="22"/>
-      <c r="K53" s="52"/>
-      <c r="L53" s="22"/>
-      <c r="M53" s="41">
+      <c r="J53" s="18"/>
+      <c r="K53" s="66"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="22"/>
-      <c r="B54" s="10">
+      <c r="A54" s="18"/>
+      <c r="B54" s="19">
         <v>3.07879474396315</v>
       </c>
-      <c r="C54" s="3">
-        <f t="shared" si="5"/>
+      <c r="C54" s="30">
+        <f t="shared" si="7"/>
         <v>3.07879474396315</v>
       </c>
-      <c r="D54" s="22"/>
-      <c r="E54" s="50"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="10">
+      <c r="D54" s="18"/>
+      <c r="E54" s="65"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="69">
         <v>-7024826830.4196901</v>
       </c>
-      <c r="I54" s="14">
-        <f t="shared" si="6"/>
+      <c r="I54" s="20">
+        <f t="shared" si="8"/>
         <v>-7024826830.4196901</v>
       </c>
-      <c r="J54" s="22"/>
-      <c r="K54" s="52"/>
-      <c r="L54" s="22"/>
-      <c r="M54" s="41">
+      <c r="J54" s="18"/>
+      <c r="K54" s="66"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="22"/>
-      <c r="B55" s="10">
+      <c r="A55" s="18"/>
+      <c r="B55" s="19">
         <v>3.5699116467216698</v>
       </c>
-      <c r="C55" s="3">
-        <f t="shared" si="5"/>
+      <c r="C55" s="30">
+        <f t="shared" si="7"/>
         <v>3.5699116467216698</v>
       </c>
-      <c r="D55" s="22"/>
-      <c r="E55" s="50"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="10">
+      <c r="D55" s="18"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="70">
         <v>98374776643.117096</v>
       </c>
-      <c r="I55" s="14">
-        <f t="shared" si="6"/>
+      <c r="I55" s="20">
+        <f t="shared" si="8"/>
         <v>98374776643.117096</v>
       </c>
-      <c r="J55" s="22"/>
-      <c r="K55" s="52"/>
-      <c r="L55" s="22"/>
-      <c r="M55" s="41">
+      <c r="J55" s="18"/>
+      <c r="K55" s="66"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="22"/>
-      <c r="B56" s="10">
+      <c r="A56" s="18"/>
+      <c r="B56" s="19">
         <v>6.50267838414028</v>
       </c>
-      <c r="C56" s="3">
-        <f t="shared" si="5"/>
+      <c r="C56" s="30">
+        <f t="shared" si="7"/>
         <v>6.50267838414028</v>
       </c>
-      <c r="D56" s="22"/>
-      <c r="E56" s="50"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="10">
+      <c r="D56" s="18"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="70">
         <v>-737935886762.552</v>
       </c>
-      <c r="I56" s="14">
-        <f t="shared" si="6"/>
+      <c r="I56" s="20">
+        <f t="shared" si="8"/>
         <v>-737935886762.552</v>
       </c>
-      <c r="J56" s="22"/>
-      <c r="K56" s="52"/>
-      <c r="L56" s="22"/>
-      <c r="M56" s="41">
+      <c r="J56" s="18"/>
+      <c r="K56" s="66"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="22"/>
-      <c r="B57" s="10">
+      <c r="A57" s="18"/>
+      <c r="B57" s="19">
         <v>2.1923596803591798</v>
       </c>
-      <c r="C57" s="3">
-        <f t="shared" si="5"/>
+      <c r="C57" s="30">
+        <f t="shared" si="7"/>
         <v>2.1923596803591798</v>
       </c>
-      <c r="D57" s="22"/>
-      <c r="E57" s="50"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="10">
+      <c r="D57" s="18"/>
+      <c r="E57" s="65"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="70">
         <v>3306283252088.5801</v>
       </c>
-      <c r="I57" s="14">
-        <f t="shared" si="6"/>
+      <c r="I57" s="20">
+        <f t="shared" si="8"/>
         <v>3306283252088.5801</v>
       </c>
-      <c r="J57" s="22"/>
-      <c r="K57" s="52"/>
-      <c r="L57" s="22"/>
-      <c r="M57" s="41">
+      <c r="J57" s="18"/>
+      <c r="K57" s="66"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="12">
         <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="22"/>
-      <c r="B58" s="10">
+      <c r="A58" s="18"/>
+      <c r="B58" s="19">
         <v>13.879386242845801</v>
       </c>
-      <c r="C58" s="3">
-        <f t="shared" si="5"/>
+      <c r="C58" s="30">
+        <f t="shared" si="7"/>
         <v>13.879386242845801</v>
       </c>
-      <c r="D58" s="22"/>
-      <c r="E58" s="50"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="10">
+      <c r="D58" s="18"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="70">
         <v>-9368306125824.25</v>
       </c>
-      <c r="I58" s="14">
-        <f t="shared" si="6"/>
+      <c r="I58" s="20">
+        <f t="shared" si="8"/>
         <v>-9368306125824.25</v>
       </c>
-      <c r="J58" s="22"/>
-      <c r="K58" s="52"/>
-      <c r="L58" s="22"/>
-      <c r="M58" s="41">
+      <c r="J58" s="18"/>
+      <c r="K58" s="66"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="12">
         <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="22"/>
-      <c r="B59" s="10">
+      <c r="A59" s="18"/>
+      <c r="B59" s="19">
         <v>-0.70159756776837401</v>
       </c>
-      <c r="C59" s="3">
-        <f t="shared" si="5"/>
+      <c r="C59" s="30">
+        <f t="shared" si="7"/>
         <v>-0.70159756776837401</v>
       </c>
-      <c r="D59" s="22"/>
-      <c r="E59" s="50"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="10">
+      <c r="D59" s="18"/>
+      <c r="E59" s="65"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="70">
         <v>17207480849928.1</v>
       </c>
-      <c r="I59" s="14">
-        <f t="shared" si="6"/>
+      <c r="I59" s="20">
+        <f t="shared" si="8"/>
         <v>17207480849928.1</v>
       </c>
-      <c r="J59" s="22"/>
-      <c r="K59" s="52"/>
-      <c r="L59" s="22"/>
-      <c r="M59" s="41">
+      <c r="J59" s="18"/>
+      <c r="K59" s="66"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="12">
         <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="22"/>
-      <c r="B60" s="10">
+      <c r="A60" s="18"/>
+      <c r="B60" s="19">
         <v>16.5242164958124</v>
       </c>
-      <c r="C60" s="3">
-        <f t="shared" si="5"/>
+      <c r="C60" s="30">
+        <f t="shared" si="7"/>
         <v>16.5242164958124</v>
       </c>
-      <c r="D60" s="22"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="10">
+      <c r="D60" s="18"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="70">
         <v>-20433908982478</v>
       </c>
-      <c r="I60" s="14">
-        <f t="shared" si="6"/>
+      <c r="I60" s="20">
+        <f t="shared" si="8"/>
         <v>-20433908982478</v>
       </c>
-      <c r="J60" s="22"/>
-      <c r="K60" s="52"/>
-      <c r="L60" s="22"/>
-      <c r="M60" s="41">
+      <c r="J60" s="18"/>
+      <c r="K60" s="66"/>
+      <c r="L60" s="18"/>
+      <c r="M60" s="12">
         <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="22"/>
-      <c r="B61" s="10">
+      <c r="A61" s="18"/>
+      <c r="B61" s="19">
         <v>5.7640596231979604</v>
       </c>
-      <c r="C61" s="3">
-        <f t="shared" si="5"/>
+      <c r="C61" s="30">
+        <f t="shared" si="7"/>
         <v>5.7640596231979604</v>
       </c>
-      <c r="D61" s="22"/>
-      <c r="E61" s="50"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="10">
+      <c r="D61" s="18"/>
+      <c r="E61" s="65"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="70">
         <v>15136026653028.301</v>
       </c>
-      <c r="I61" s="14">
-        <f t="shared" si="6"/>
+      <c r="I61" s="20">
+        <f t="shared" si="8"/>
         <v>15136026653028.301</v>
       </c>
-      <c r="J61" s="22"/>
-      <c r="K61" s="52"/>
-      <c r="L61" s="22"/>
-      <c r="M61" s="41">
+      <c r="J61" s="18"/>
+      <c r="K61" s="66"/>
+      <c r="L61" s="18"/>
+      <c r="M61" s="12">
         <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="22"/>
-      <c r="B62" s="10">
+      <c r="A62" s="18"/>
+      <c r="B62" s="19">
         <v>12.397803144221999</v>
       </c>
-      <c r="C62" s="3">
-        <f t="shared" si="5"/>
+      <c r="C62" s="30">
+        <f t="shared" si="7"/>
         <v>12.397803144221999</v>
       </c>
-      <c r="D62" s="22"/>
-      <c r="E62" s="50"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="10">
+      <c r="D62" s="18"/>
+      <c r="E62" s="65"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="70">
         <v>-6356982673238.29</v>
       </c>
-      <c r="I62" s="14">
-        <f t="shared" si="6"/>
+      <c r="I62" s="20">
+        <f t="shared" si="8"/>
         <v>-6356982673238.29</v>
       </c>
-      <c r="J62" s="22"/>
-      <c r="K62" s="52"/>
-      <c r="L62" s="22"/>
-      <c r="M62" s="41">
+      <c r="J62" s="18"/>
+      <c r="K62" s="66"/>
+      <c r="L62" s="18"/>
+      <c r="M62" s="12">
         <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="22"/>
-      <c r="B63" s="10">
+      <c r="A63" s="18"/>
+      <c r="B63" s="19">
         <v>11.7951162504077</v>
       </c>
-      <c r="C63" s="3">
-        <f t="shared" si="5"/>
+      <c r="C63" s="30">
+        <f t="shared" si="7"/>
         <v>11.7951162504077</v>
       </c>
-      <c r="D63" s="22"/>
-      <c r="E63" s="50"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="11">
+      <c r="D63" s="18"/>
+      <c r="E63" s="65"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="71">
         <v>1155780181951.0901</v>
       </c>
-      <c r="I63" s="15">
-        <f t="shared" si="6"/>
+      <c r="I63" s="25">
+        <f t="shared" si="8"/>
         <v>1155780181951.0901</v>
       </c>
       <c r="J63" s="23"/>
-      <c r="K63" s="53"/>
+      <c r="K63" s="67"/>
       <c r="L63" s="23"/>
-      <c r="M63" s="41">
+      <c r="M63" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="21" t="s">
+      <c r="A64" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B64" s="12">
+      <c r="B64" s="14">
         <v>0.999999979793048</v>
       </c>
-      <c r="C64" s="13">
-        <f t="shared" si="5"/>
+      <c r="C64" s="15">
+        <f t="shared" si="7"/>
         <v>0.999999979793048</v>
       </c>
-      <c r="D64" s="21">
+      <c r="D64" s="13">
         <v>4</v>
       </c>
-      <c r="E64" s="27">
+      <c r="E64" s="28">
         <v>1.0000000000000001E-15</v>
       </c>
-      <c r="F64" s="21"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="20"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="20"/>
-      <c r="M64" s="41">
+      <c r="F64" s="13"/>
+      <c r="M64" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="22"/>
-      <c r="B65" s="10">
+      <c r="A65" s="18"/>
+      <c r="B65" s="19">
         <v>2.0000017430691401</v>
       </c>
-      <c r="C65" s="14">
-        <f t="shared" si="5"/>
+      <c r="C65" s="20">
+        <f t="shared" si="7"/>
         <v>2.0000017430691401</v>
       </c>
-      <c r="D65" s="22"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="20"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="20"/>
-      <c r="M65" s="41">
+      <c r="D65" s="18"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="18"/>
+      <c r="M65" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="22"/>
-      <c r="B66" s="10">
+      <c r="A66" s="18"/>
+      <c r="B66" s="19">
         <v>2.99996539404495</v>
       </c>
-      <c r="C66" s="14">
-        <f t="shared" si="5"/>
+      <c r="C66" s="20">
+        <f t="shared" si="7"/>
         <v>2.99996539404495</v>
       </c>
-      <c r="D66" s="22"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="20"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="20"/>
-      <c r="M66" s="41">
+      <c r="D66" s="18"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="18"/>
+      <c r="M66" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="22"/>
-      <c r="B67" s="10">
+      <c r="A67" s="18"/>
+      <c r="B67" s="19">
         <v>4.0002477737200604</v>
       </c>
-      <c r="C67" s="14">
-        <f t="shared" si="5"/>
+      <c r="C67" s="20">
+        <f t="shared" si="7"/>
         <v>4.0002477737200604</v>
       </c>
-      <c r="D67" s="22"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="20"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="20"/>
-      <c r="M67" s="41">
+      <c r="D67" s="18"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="18"/>
+      <c r="M67" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="22"/>
-      <c r="B68" s="10">
+      <c r="A68" s="18"/>
+      <c r="B68" s="19">
         <v>4.9995495179237501</v>
       </c>
-      <c r="C68" s="14">
-        <f t="shared" si="5"/>
+      <c r="C68" s="20">
+        <f t="shared" si="7"/>
         <v>4.9995495179237501</v>
       </c>
-      <c r="D68" s="22"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="20"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="20"/>
-      <c r="M68" s="41">
+      <c r="D68" s="18"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="18"/>
+      <c r="M68" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="22"/>
-      <c r="B69" s="10">
+      <c r="A69" s="18"/>
+      <c r="B69" s="19">
         <v>5.9968855599697299</v>
       </c>
-      <c r="C69" s="14">
-        <f t="shared" si="5"/>
+      <c r="C69" s="20">
+        <f t="shared" si="7"/>
         <v>5.9968855599697299</v>
       </c>
-      <c r="D69" s="22"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="20"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="20"/>
-      <c r="M69" s="41">
+      <c r="D69" s="18"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="18"/>
+      <c r="M69" s="12">
         <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="22"/>
-      <c r="B70" s="10">
+      <c r="A70" s="18"/>
+      <c r="B70" s="19">
         <v>7.0209054374528401</v>
       </c>
-      <c r="C70" s="14">
-        <f t="shared" si="5"/>
+      <c r="C70" s="20">
+        <f t="shared" si="7"/>
         <v>7.0209054374528401</v>
       </c>
-      <c r="D70" s="22"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="20"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="20"/>
-      <c r="M70" s="41">
+      <c r="D70" s="18"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="18"/>
+      <c r="M70" s="12">
         <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="22"/>
-      <c r="B71" s="10">
+      <c r="A71" s="18"/>
+      <c r="B71" s="19">
         <v>7.9428551541508599</v>
       </c>
-      <c r="C71" s="14">
-        <f t="shared" si="5"/>
+      <c r="C71" s="20">
+        <f t="shared" si="7"/>
         <v>7.9428551541508599</v>
       </c>
-      <c r="D71" s="22"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="20"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="20"/>
-      <c r="M71" s="41">
+      <c r="D71" s="18"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="18"/>
+      <c r="M71" s="12">
         <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="22"/>
-      <c r="B72" s="10">
+      <c r="A72" s="18"/>
+      <c r="B72" s="19">
         <v>9.0869320297434104</v>
       </c>
-      <c r="C72" s="14">
-        <f t="shared" si="5"/>
+      <c r="C72" s="20">
+        <f t="shared" si="7"/>
         <v>9.0869320297434104</v>
       </c>
-      <c r="D72" s="22"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="20"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="20"/>
-      <c r="M72" s="41">
+      <c r="D72" s="18"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="18"/>
+      <c r="M72" s="12">
         <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="22"/>
-      <c r="B73" s="10">
+      <c r="A73" s="18"/>
+      <c r="B73" s="19">
         <v>9.9233589778443196</v>
       </c>
-      <c r="C73" s="14">
-        <f t="shared" si="5"/>
+      <c r="C73" s="20">
+        <f t="shared" si="7"/>
         <v>9.9233589778443196</v>
       </c>
-      <c r="D73" s="22"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="20"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="20"/>
-      <c r="M73" s="41">
+      <c r="D73" s="18"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="18"/>
+      <c r="M73" s="12">
         <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="22"/>
-      <c r="B74" s="10">
+      <c r="A74" s="18"/>
+      <c r="B74" s="19">
         <v>11.036693233039699</v>
       </c>
-      <c r="C74" s="14">
-        <f t="shared" si="5"/>
+      <c r="C74" s="20">
+        <f t="shared" si="7"/>
         <v>11.036693233039699</v>
       </c>
-      <c r="D74" s="22"/>
-      <c r="E74" s="28"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="20"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="20"/>
-      <c r="M74" s="41">
+      <c r="D74" s="18"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="18"/>
+      <c r="M74" s="12">
         <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="23"/>
-      <c r="B75" s="11">
+      <c r="B75" s="24">
         <v>11.992605171867099</v>
       </c>
-      <c r="C75" s="15">
-        <f t="shared" si="5"/>
+      <c r="C75" s="25">
+        <f t="shared" si="7"/>
         <v>11.992605171867099</v>
       </c>
       <c r="D75" s="23"/>
-      <c r="E75" s="29"/>
+      <c r="E75" s="32"/>
       <c r="F75" s="23"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="20"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="20"/>
-      <c r="M75" s="41">
+      <c r="M75" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="8" t="s">
+    <row r="76" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D76" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="E76" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F76" s="8" t="s">
+      <c r="F76" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G76" s="20"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="20"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="50">
     <mergeCell ref="A64:A75"/>
     <mergeCell ref="D64:D75"/>
     <mergeCell ref="E64:E75"/>
@@ -5301,6 +6017,21 @@
     <mergeCell ref="D2:D8"/>
     <mergeCell ref="J2:J8"/>
     <mergeCell ref="E2:E8"/>
+    <mergeCell ref="R2:R11"/>
+    <mergeCell ref="U2:U11"/>
+    <mergeCell ref="V2:V11"/>
+    <mergeCell ref="AA2:AA11"/>
+    <mergeCell ref="AB2:AB11"/>
+    <mergeCell ref="X2:X11"/>
+    <mergeCell ref="AA12:AA21"/>
+    <mergeCell ref="AB12:AB21"/>
+    <mergeCell ref="R22:R31"/>
+    <mergeCell ref="V22:V31"/>
+    <mergeCell ref="U22:U31"/>
+    <mergeCell ref="R12:R21"/>
+    <mergeCell ref="X12:X21"/>
+    <mergeCell ref="U12:U21"/>
+    <mergeCell ref="V12:V21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
